--- a/resources/raw_data/2023/data_entry_biannual_spr2023.xlsx
+++ b/resources/raw_data/2023/data_entry_biannual_spr2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessh\Documents\GitHub\Dendrobands\resources\raw_data\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87A72A1-978F-4B79-9283-12A1CA76DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348030F7-6257-4123-B602-331382DF427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_entry_biannual_spr2023_BLA!$A$1:$U$504</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="140">
   <si>
     <t>tag</t>
   </si>
@@ -326,9 +326,6 @@
     <t>RE; RT</t>
   </si>
   <si>
-    <t>Re; NN</t>
-  </si>
-  <si>
     <t>Q; NN</t>
   </si>
   <si>
@@ -351,12 +348,6 @@
   </si>
   <si>
     <t>NN, RT</t>
-  </si>
-  <si>
-    <t>Brigit Rooney, Krista Anderson-Teixeira</t>
-  </si>
-  <si>
-    <t>RT, NN</t>
   </si>
   <si>
     <t>tag # not on map</t>
@@ -399,6 +390,60 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>RE; NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag on ground </t>
+  </si>
+  <si>
+    <t>Unhealthy</t>
+  </si>
+  <si>
+    <t>Embedded tag</t>
+  </si>
+  <si>
+    <t>No tag</t>
+  </si>
+  <si>
+    <t>BA; RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempted to adjust band. Needs replacing . Bad measurement </t>
+  </si>
+  <si>
+    <t>Jen Jordan</t>
+  </si>
+  <si>
+    <t>Dead on ground</t>
+  </si>
+  <si>
+    <t>Tag on ground</t>
+  </si>
+  <si>
+    <t>Tag off</t>
+  </si>
+  <si>
+    <t>Broken stem</t>
+  </si>
+  <si>
+    <t>Band adjustment needed. Past measure probably wrong</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>possible typo</t>
+  </si>
+  <si>
+    <t>RT; NN</t>
+  </si>
+  <si>
+    <t>Jen Jordan, Kristina Anderson-Teixeira</t>
+  </si>
+  <si>
+    <t>Brigit Rooney, Kristina Anderson-Teixeira</t>
   </si>
 </sst>
 </file>
@@ -882,8 +927,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1242,10 +1288,14 @@
   <dimension ref="A1:U504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M160" sqref="M160"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q142" sqref="Q142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="11" max="11" width="8.83984375" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -1278,7 +1328,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1343,11 +1393,11 @@
       <c r="J2">
         <v>51.33</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>52.21</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
         <v>96</v>
@@ -1396,14 +1446,14 @@
       <c r="J3">
         <v>37.19</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>38.299999999999997</v>
       </c>
       <c r="M3" t="s">
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="s">
         <v>96</v>
@@ -1452,11 +1502,11 @@
       <c r="J4">
         <v>7.67</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>4.87</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
         <v>96</v>
@@ -1505,14 +1555,14 @@
       <c r="J5">
         <v>80.41</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>81.040000000000006</v>
       </c>
       <c r="M5" t="s">
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q5" t="s">
         <v>96</v>
@@ -1561,11 +1611,11 @@
       <c r="J6">
         <v>130.22999999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>131.09</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q6" t="s">
         <v>96</v>
@@ -1614,11 +1664,11 @@
       <c r="J7">
         <v>26.05</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>26.63</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q7" t="s">
         <v>96</v>
@@ -1667,11 +1717,11 @@
       <c r="J8">
         <v>13.32</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>9.61</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
         <v>96</v>
@@ -1720,14 +1770,14 @@
       <c r="J9">
         <v>45.58</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>45.1</v>
       </c>
       <c r="M9" t="s">
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q9" t="s">
         <v>96</v>
@@ -1776,14 +1826,14 @@
       <c r="J10">
         <v>99.33</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>100</v>
       </c>
       <c r="M10" t="s">
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q10" t="s">
         <v>96</v>
@@ -1832,11 +1882,11 @@
       <c r="J11">
         <v>65.53</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>65.83</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q11" t="s">
         <v>96</v>
@@ -1885,14 +1935,14 @@
       <c r="J12">
         <v>126</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>126.86</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q12" t="s">
         <v>96</v>
@@ -1941,14 +1991,14 @@
       <c r="J13">
         <v>35.880000000000003</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>35.909999999999997</v>
       </c>
       <c r="M13" t="s">
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q13" t="s">
         <v>96</v>
@@ -1997,14 +2047,14 @@
       <c r="J14">
         <v>55.05</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>56.09</v>
       </c>
       <c r="M14" t="s">
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -2053,11 +2103,11 @@
       <c r="J15">
         <v>7.47</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>6.33</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q15" t="s">
         <v>96</v>
@@ -2106,11 +2156,11 @@
       <c r="J16">
         <v>110.78</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>111.31</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
@@ -2159,11 +2209,11 @@
       <c r="J17">
         <v>100.21</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>100.93</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q17" t="s">
         <v>96</v>
@@ -2212,14 +2262,14 @@
       <c r="J18">
         <v>31</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>30.75</v>
       </c>
       <c r="M18" t="s">
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q18" t="s">
         <v>96</v>
@@ -2268,11 +2318,11 @@
       <c r="J19">
         <v>10.84</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>11.3</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" t="s">
         <v>96</v>
@@ -2321,11 +2371,11 @@
       <c r="J20">
         <v>22.35</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>21.16</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q20" t="s">
         <v>96</v>
@@ -2374,11 +2424,11 @@
       <c r="J21">
         <v>57.79</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>57.98</v>
       </c>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q21" t="s">
         <v>96</v>
@@ -2427,11 +2477,11 @@
       <c r="J22">
         <v>65.39</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>65.92</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" t="s">
         <v>96</v>
@@ -2480,11 +2530,11 @@
       <c r="J23">
         <v>93.03</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>93.76</v>
       </c>
       <c r="P23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q23" t="s">
         <v>96</v>
@@ -2533,14 +2583,14 @@
       <c r="J24">
         <v>4.13</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>2.72</v>
       </c>
       <c r="M24" t="s">
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q24" t="s">
         <v>96</v>
@@ -2589,11 +2639,11 @@
       <c r="J25">
         <v>51.67</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>51.84</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q25" t="s">
         <v>96</v>
@@ -2642,11 +2692,11 @@
       <c r="J26">
         <v>48</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>48.28</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>
@@ -2695,11 +2745,11 @@
       <c r="J27">
         <v>85.91</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>85.65</v>
       </c>
       <c r="P27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q27" t="s">
         <v>96</v>
@@ -2748,11 +2798,11 @@
       <c r="J28">
         <v>24.19</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>23.86</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" t="s">
         <v>96</v>
@@ -2801,14 +2851,14 @@
       <c r="J29">
         <v>69.040000000000006</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>69.349999999999994</v>
       </c>
       <c r="M29" t="s">
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q29" t="s">
         <v>96</v>
@@ -2857,14 +2907,14 @@
       <c r="J30">
         <v>93.66</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>94</v>
       </c>
       <c r="M30" t="s">
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q30" t="s">
         <v>96</v>
@@ -2913,11 +2963,11 @@
       <c r="J31">
         <v>37.21</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>31</v>
       </c>
       <c r="P31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q31" t="s">
         <v>96</v>
@@ -2966,11 +3016,11 @@
       <c r="J32">
         <v>28.28</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>27.85</v>
       </c>
       <c r="P32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q32" t="s">
         <v>96</v>
@@ -3019,11 +3069,11 @@
       <c r="J33">
         <v>63.96</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>63.91</v>
       </c>
       <c r="P33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q33" t="s">
         <v>96</v>
@@ -3072,11 +3122,11 @@
       <c r="J34">
         <v>29.54</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>30.35</v>
       </c>
       <c r="P34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q34" t="s">
         <v>96</v>
@@ -3125,11 +3175,11 @@
       <c r="J35">
         <v>161.68</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>15.26</v>
       </c>
       <c r="P35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q35" t="s">
         <v>96</v>
@@ -3178,11 +3228,11 @@
       <c r="J36">
         <v>138.43</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>138.52000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q36" t="s">
         <v>96</v>
@@ -3231,11 +3281,11 @@
       <c r="J37">
         <v>108.04</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>108.06</v>
       </c>
       <c r="P37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q37" t="s">
         <v>96</v>
@@ -3284,14 +3334,14 @@
       <c r="J38">
         <v>129.47</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>130.16</v>
       </c>
       <c r="M38" t="s">
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q38" t="s">
         <v>96</v>
@@ -3340,11 +3390,11 @@
       <c r="J39">
         <v>71.099999999999994</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>71.91</v>
       </c>
       <c r="P39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q39" t="s">
         <v>96</v>
@@ -3393,14 +3443,14 @@
       <c r="J40">
         <v>55.66</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>56.27</v>
       </c>
       <c r="M40" t="s">
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q40" t="s">
         <v>96</v>
@@ -3449,11 +3499,11 @@
       <c r="J41">
         <v>89.04</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>88.69</v>
       </c>
       <c r="P41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q41" t="s">
         <v>96</v>
@@ -3502,14 +3552,14 @@
       <c r="J42">
         <v>19.420000000000002</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>21.14</v>
       </c>
       <c r="M42" t="s">
         <v>85</v>
       </c>
       <c r="P42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q42" t="s">
         <v>96</v>
@@ -3558,14 +3608,14 @@
       <c r="J43">
         <v>20.68</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>17.55</v>
       </c>
       <c r="M43" t="s">
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q43" t="s">
         <v>96</v>
@@ -3614,11 +3664,11 @@
       <c r="J44">
         <v>54.3</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>53</v>
       </c>
       <c r="P44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q44" t="s">
         <v>96</v>
@@ -3667,14 +3717,14 @@
       <c r="J45">
         <v>27.4</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>28.2</v>
       </c>
       <c r="M45" t="s">
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q45" t="s">
         <v>96</v>
@@ -3723,14 +3773,14 @@
       <c r="J46">
         <v>39.1</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>41</v>
       </c>
       <c r="M46" t="s">
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q46" t="s">
         <v>96</v>
@@ -3779,11 +3829,11 @@
       <c r="J47">
         <v>16.8</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>16.010000000000002</v>
       </c>
       <c r="P47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q47" t="s">
         <v>96</v>
@@ -3832,11 +3882,11 @@
       <c r="J48">
         <v>36.36</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>36.590000000000003</v>
       </c>
       <c r="P48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q48" t="s">
         <v>96</v>
@@ -3885,11 +3935,11 @@
       <c r="J49">
         <v>81.87</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>82.56</v>
       </c>
       <c r="P49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q49" t="s">
         <v>96</v>
@@ -3938,14 +3988,14 @@
       <c r="J50">
         <v>21.56</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>22.05</v>
       </c>
       <c r="M50" t="s">
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q50" t="s">
         <v>96</v>
@@ -3994,11 +4044,11 @@
       <c r="J51">
         <v>9.7200000000000006</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>8.17</v>
       </c>
       <c r="P51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q51" t="s">
         <v>96</v>
@@ -4047,11 +4097,11 @@
       <c r="J52">
         <v>12.7</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>6.12</v>
       </c>
       <c r="P52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q52" t="s">
         <v>96</v>
@@ -4100,11 +4150,11 @@
       <c r="J53">
         <v>19.37</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>18.3</v>
       </c>
       <c r="P53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q53" t="s">
         <v>96</v>
@@ -4153,14 +4203,14 @@
       <c r="J54">
         <v>24.84</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <v>24.42</v>
       </c>
       <c r="M54" t="s">
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q54" t="s">
         <v>96</v>
@@ -4209,11 +4259,11 @@
       <c r="J55">
         <v>47.27</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>46.97</v>
       </c>
       <c r="P55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q55" t="s">
         <v>96</v>
@@ -4262,11 +4312,11 @@
       <c r="J56">
         <v>53.44</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>17.05</v>
       </c>
       <c r="P56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q56" t="s">
         <v>96</v>
@@ -4315,11 +4365,11 @@
       <c r="J57">
         <v>144.9</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>1.75</v>
       </c>
       <c r="P57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q57" t="s">
         <v>96</v>
@@ -4368,11 +4418,11 @@
       <c r="J58">
         <v>11.24</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>12.01</v>
       </c>
       <c r="P58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q58" t="s">
         <v>96</v>
@@ -4421,14 +4471,14 @@
       <c r="J59">
         <v>14.14</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>14.98</v>
       </c>
       <c r="M59" t="s">
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q59" t="s">
         <v>96</v>
@@ -4477,14 +4527,14 @@
       <c r="J60">
         <v>98.23</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="M60" t="s">
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q60" t="s">
         <v>96</v>
@@ -4533,14 +4583,14 @@
       <c r="J61">
         <v>37.94</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>37.619999999999997</v>
       </c>
       <c r="M61" t="s">
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q61" t="s">
         <v>96</v>
@@ -4589,11 +4639,11 @@
       <c r="J62">
         <v>79.83</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>80.45</v>
       </c>
       <c r="P62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q62" t="s">
         <v>96</v>
@@ -4642,11 +4692,11 @@
       <c r="J63">
         <v>21.43</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="1">
         <v>21.59</v>
       </c>
       <c r="P63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q63" t="s">
         <v>96</v>
@@ -4695,14 +4745,14 @@
       <c r="J64">
         <v>29.03</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="1">
         <v>30.28</v>
       </c>
       <c r="M64" t="s">
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q64" t="s">
         <v>96</v>
@@ -4751,14 +4801,14 @@
       <c r="J65">
         <v>142.6</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>13.86</v>
       </c>
       <c r="M65" t="s">
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q65" t="s">
         <v>96</v>
@@ -4807,14 +4857,14 @@
       <c r="J66">
         <v>33.89</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="1">
         <v>33.85</v>
       </c>
       <c r="M66" t="s">
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q66" t="s">
         <v>96</v>
@@ -4863,14 +4913,14 @@
       <c r="J67">
         <v>74.38</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>74.17</v>
       </c>
       <c r="M67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P67" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q67" t="s">
         <v>96</v>
@@ -4919,14 +4969,14 @@
       <c r="J68">
         <v>54.91</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>57.56</v>
       </c>
       <c r="M68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P68" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q68" t="s">
         <v>96</v>
@@ -4975,11 +5025,11 @@
       <c r="J69">
         <v>22.48</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="1">
         <v>21.69</v>
       </c>
       <c r="P69" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q69" t="s">
         <v>96</v>
@@ -5028,11 +5078,11 @@
       <c r="J70">
         <v>20.9</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>20.22</v>
       </c>
       <c r="P70" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q70" t="s">
         <v>96</v>
@@ -5081,11 +5131,11 @@
       <c r="J71">
         <v>106.1</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>109.15</v>
       </c>
       <c r="P71" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q71" t="s">
         <v>96</v>
@@ -5134,11 +5184,11 @@
       <c r="J72">
         <v>58.82</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="1">
         <v>62.05</v>
       </c>
       <c r="P72" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q72" t="s">
         <v>96</v>
@@ -5187,11 +5237,11 @@
       <c r="J73">
         <v>72</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>71.64</v>
       </c>
       <c r="P73" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q73" t="s">
         <v>96</v>
@@ -5240,14 +5290,14 @@
       <c r="J74">
         <v>124.38</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>125.04</v>
       </c>
       <c r="M74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q74" t="s">
         <v>96</v>
@@ -5296,11 +5346,11 @@
       <c r="J75">
         <v>82.46</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>79.98</v>
       </c>
       <c r="P75" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q75" t="s">
         <v>96</v>
@@ -5349,11 +5399,11 @@
       <c r="J76">
         <v>20.38</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>20.9</v>
       </c>
       <c r="P76" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q76" t="s">
         <v>96</v>
@@ -5402,11 +5452,11 @@
       <c r="J77">
         <v>117.01</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="1">
         <v>117.87</v>
       </c>
       <c r="P77" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q77" t="s">
         <v>96</v>
@@ -5455,11 +5505,11 @@
       <c r="J78">
         <v>26.2</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="1">
         <v>25.76</v>
       </c>
       <c r="P78" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q78" t="s">
         <v>96</v>
@@ -5508,11 +5558,11 @@
       <c r="J79">
         <v>33.799999999999997</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="1">
         <v>34.03</v>
       </c>
       <c r="P79" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q79" t="s">
         <v>96</v>
@@ -5561,11 +5611,11 @@
       <c r="J80">
         <v>98.66</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="1">
         <v>98.66</v>
       </c>
       <c r="P80" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q80" t="s">
         <v>96</v>
@@ -5614,11 +5664,11 @@
       <c r="J81">
         <v>36.18</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="1">
         <v>35.31</v>
       </c>
       <c r="P81" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q81" t="s">
         <v>96</v>
@@ -5667,11 +5717,11 @@
       <c r="J82">
         <v>47.05</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="1">
         <v>44.21</v>
       </c>
       <c r="P82" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q82" t="s">
         <v>96</v>
@@ -5720,11 +5770,11 @@
       <c r="J83">
         <v>69.52</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="1">
         <v>70.260000000000005</v>
       </c>
       <c r="P83" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q83" t="s">
         <v>96</v>
@@ -5773,11 +5823,11 @@
       <c r="J84">
         <v>48.04</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="1">
         <v>48.7</v>
       </c>
       <c r="P84" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q84" t="s">
         <v>96</v>
@@ -5826,11 +5876,11 @@
       <c r="J85">
         <v>44.55</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="1">
         <v>44.99</v>
       </c>
       <c r="P85" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q85" t="s">
         <v>96</v>
@@ -5879,11 +5929,11 @@
       <c r="J86">
         <v>71.94</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>71.14</v>
       </c>
       <c r="P86" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q86" t="s">
         <v>96</v>
@@ -5932,11 +5982,11 @@
       <c r="J87">
         <v>54.27</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>54.71</v>
       </c>
       <c r="P87" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q87" t="s">
         <v>96</v>
@@ -5985,11 +6035,11 @@
       <c r="J88">
         <v>34.21</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="1">
         <v>34.08</v>
       </c>
       <c r="P88" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q88" t="s">
         <v>96</v>
@@ -6038,14 +6088,14 @@
       <c r="J89">
         <v>31.63</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="1">
         <v>30.88</v>
       </c>
       <c r="M89" t="s">
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q89" t="s">
         <v>96</v>
@@ -6094,11 +6144,11 @@
       <c r="J90">
         <v>6.34</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="1">
         <v>6.9</v>
       </c>
       <c r="P90" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q90" t="s">
         <v>96</v>
@@ -6147,11 +6197,11 @@
       <c r="J91">
         <v>7.37</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="1">
         <v>7.24</v>
       </c>
       <c r="P91" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q91" t="s">
         <v>96</v>
@@ -6200,11 +6250,11 @@
       <c r="J92">
         <v>117.08</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="1">
         <v>117.35</v>
       </c>
       <c r="P92" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q92" t="s">
         <v>96</v>
@@ -6253,11 +6303,11 @@
       <c r="J93">
         <v>23.18</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="1">
         <v>21.98</v>
       </c>
       <c r="P93" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q93" t="s">
         <v>96</v>
@@ -6306,11 +6356,11 @@
       <c r="J94">
         <v>27.9</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="1">
         <v>27.51</v>
       </c>
       <c r="P94" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q94" t="s">
         <v>96</v>
@@ -6359,14 +6409,14 @@
       <c r="J95">
         <v>53.33</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="1">
         <v>53.56</v>
       </c>
       <c r="M95" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="P95" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q95" t="s">
         <v>96</v>
@@ -6415,14 +6465,14 @@
       <c r="J96">
         <v>78.92</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="1">
         <v>79.61</v>
       </c>
       <c r="M96" t="s">
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q96" t="s">
         <v>96</v>
@@ -6471,11 +6521,11 @@
       <c r="J97">
         <v>110.45</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="1">
         <v>110.56</v>
       </c>
       <c r="P97" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q97" t="s">
         <v>96</v>
@@ -6524,11 +6574,11 @@
       <c r="J98">
         <v>56.37</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="1">
         <v>57.02</v>
       </c>
       <c r="P98" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q98" t="s">
         <v>96</v>
@@ -6577,14 +6627,14 @@
       <c r="J99">
         <v>69.760000000000005</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="1">
         <v>64.680000000000007</v>
       </c>
       <c r="L99" t="s">
         <v>83</v>
       </c>
       <c r="P99" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q99" t="s">
         <v>96</v>
@@ -6633,14 +6683,14 @@
       <c r="J100">
         <v>30.09</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="1">
         <v>30.81</v>
       </c>
       <c r="M100" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="P100" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q100" t="s">
         <v>96</v>
@@ -6689,14 +6739,14 @@
       <c r="J101">
         <v>40.9</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="1">
         <v>42.66</v>
       </c>
       <c r="O101" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P101" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q101" t="s">
         <v>96</v>
@@ -6745,11 +6795,11 @@
       <c r="J102">
         <v>20.92</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="1">
         <v>19.53</v>
       </c>
       <c r="P102" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q102" t="s">
         <v>96</v>
@@ -6798,11 +6848,11 @@
       <c r="J103">
         <v>50.62</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="1">
         <v>54.22</v>
       </c>
       <c r="P103" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q103" t="s">
         <v>96</v>
@@ -6851,11 +6901,11 @@
       <c r="J104">
         <v>107.8</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="1">
         <v>112.7</v>
       </c>
       <c r="P104" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q104" t="s">
         <v>96</v>
@@ -6904,11 +6954,11 @@
       <c r="J105">
         <v>34.159999999999997</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="1">
         <v>34.700000000000003</v>
       </c>
       <c r="P105" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q105" t="s">
         <v>96</v>
@@ -6957,11 +7007,11 @@
       <c r="J106">
         <v>53.18</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="1">
         <v>54</v>
       </c>
       <c r="P106" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q106" t="s">
         <v>96</v>
@@ -7010,11 +7060,11 @@
       <c r="J107">
         <v>100.55</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="1">
         <v>102.03</v>
       </c>
       <c r="P107" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q107" t="s">
         <v>96</v>
@@ -7063,11 +7113,11 @@
       <c r="J108">
         <v>15.03</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="1">
         <v>15.79</v>
       </c>
       <c r="P108" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q108" t="s">
         <v>96</v>
@@ -7116,11 +7166,11 @@
       <c r="J109">
         <v>41.72</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="1">
         <v>41.17</v>
       </c>
       <c r="P109" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q109" t="s">
         <v>96</v>
@@ -7169,11 +7219,11 @@
       <c r="J110">
         <v>35.229999999999997</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="1">
         <v>35.659999999999997</v>
       </c>
       <c r="P110" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q110" t="s">
         <v>96</v>
@@ -7222,11 +7272,11 @@
       <c r="J111">
         <v>20.96</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="1">
         <v>21.42</v>
       </c>
       <c r="P111" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q111" t="s">
         <v>96</v>
@@ -7275,11 +7325,11 @@
       <c r="J112">
         <v>120.87</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="1">
         <v>121.72</v>
       </c>
       <c r="P112" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q112" t="s">
         <v>96</v>
@@ -7328,11 +7378,11 @@
       <c r="J113">
         <v>21.3</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="1">
         <v>19.13</v>
       </c>
       <c r="P113" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q113" t="s">
         <v>96</v>
@@ -7381,11 +7431,11 @@
       <c r="J114">
         <v>38.31</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="1">
         <v>39.07</v>
       </c>
       <c r="P114" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q114" t="s">
         <v>96</v>
@@ -7434,11 +7484,11 @@
       <c r="J115">
         <v>33.04</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="1">
         <v>34.65</v>
       </c>
       <c r="P115" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q115" t="s">
         <v>96</v>
@@ -7487,11 +7537,11 @@
       <c r="J116">
         <v>29.52</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="1">
         <v>31.23</v>
       </c>
       <c r="P116" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q116" t="s">
         <v>96</v>
@@ -7540,14 +7590,14 @@
       <c r="J117">
         <v>19.84</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P117" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q117" t="s">
         <v>96</v>
@@ -7596,11 +7646,11 @@
       <c r="J118">
         <v>37.92</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="1">
         <v>38.479999999999997</v>
       </c>
       <c r="P118" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q118" t="s">
         <v>96</v>
@@ -7649,11 +7699,11 @@
       <c r="J119">
         <v>21.86</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="1">
         <v>22.06</v>
       </c>
       <c r="P119" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q119" t="s">
         <v>96</v>
@@ -7702,11 +7752,11 @@
       <c r="J120">
         <v>23.98</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="1">
         <v>23.92</v>
       </c>
       <c r="P120" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q120" t="s">
         <v>96</v>
@@ -7755,11 +7805,11 @@
       <c r="J121">
         <v>66.12</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="1">
         <v>66.459999999999994</v>
       </c>
       <c r="P121" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q121" t="s">
         <v>96</v>
@@ -7808,11 +7858,11 @@
       <c r="J122">
         <v>106.68</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="1">
         <v>108.49</v>
       </c>
       <c r="P122" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q122" t="s">
         <v>96</v>
@@ -7861,11 +7911,11 @@
       <c r="J123">
         <v>25.87</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="1">
         <v>25.92</v>
       </c>
       <c r="P123" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q123" t="s">
         <v>96</v>
@@ -7914,11 +7964,11 @@
       <c r="J124">
         <v>109.1</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="1">
         <v>109.14</v>
       </c>
       <c r="P124" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q124" t="s">
         <v>96</v>
@@ -7967,11 +8017,11 @@
       <c r="J125">
         <v>71.63</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="1">
         <v>71.84</v>
       </c>
       <c r="P125" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q125" t="s">
         <v>96</v>
@@ -8020,11 +8070,11 @@
       <c r="J126">
         <v>63.58</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="1">
         <v>63.71</v>
       </c>
       <c r="P126" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q126" t="s">
         <v>96</v>
@@ -8073,11 +8123,11 @@
       <c r="J127">
         <v>28.59</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="1">
         <v>29.41</v>
       </c>
       <c r="P127" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q127" t="s">
         <v>96</v>
@@ -8126,14 +8176,14 @@
       <c r="J128">
         <v>58.6</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>57.87</v>
       </c>
       <c r="M128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P128" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q128" t="s">
         <v>96</v>
@@ -8182,14 +8232,14 @@
       <c r="J129">
         <v>112.73</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="1">
         <v>113.28</v>
       </c>
       <c r="M129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P129" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q129" t="s">
         <v>96</v>
@@ -8238,11 +8288,11 @@
       <c r="J130">
         <v>46.3</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="1">
         <v>46.71</v>
       </c>
       <c r="P130" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q130" t="s">
         <v>96</v>
@@ -8291,11 +8341,11 @@
       <c r="J131">
         <v>35.26</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="1">
         <v>35.25</v>
       </c>
       <c r="P131" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q131" t="s">
         <v>96</v>
@@ -8344,11 +8394,11 @@
       <c r="J132">
         <v>132.35</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="1">
         <v>133.07</v>
       </c>
       <c r="P132" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q132" t="s">
         <v>96</v>
@@ -8397,11 +8447,11 @@
       <c r="J133">
         <v>126.04</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="1">
         <v>125.85</v>
       </c>
       <c r="P133" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q133" t="s">
         <v>96</v>
@@ -8450,11 +8500,11 @@
       <c r="J134">
         <v>30.94</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="1">
         <v>31.52</v>
       </c>
       <c r="P134" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q134" t="s">
         <v>96</v>
@@ -8503,11 +8553,11 @@
       <c r="J135">
         <v>9.42</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="1">
         <v>10.44</v>
       </c>
       <c r="P135" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q135" t="s">
         <v>96</v>
@@ -8556,11 +8606,11 @@
       <c r="J136">
         <v>28.46</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="1">
         <v>29.8</v>
       </c>
       <c r="P136" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q136" t="s">
         <v>96</v>
@@ -8609,14 +8659,14 @@
       <c r="J137">
         <v>19.37</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="1">
         <v>19.62</v>
       </c>
       <c r="M137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P137" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q137" t="s">
         <v>96</v>
@@ -8665,11 +8715,11 @@
       <c r="J138">
         <v>129.38</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="1">
         <v>130.21</v>
       </c>
       <c r="P138" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q138" t="s">
         <v>96</v>
@@ -8718,11 +8768,11 @@
       <c r="J139">
         <v>16.11</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="1">
         <v>14.79</v>
       </c>
       <c r="P139" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q139" t="s">
         <v>96</v>
@@ -8771,11 +8821,11 @@
       <c r="J140">
         <v>26.03</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="1">
         <v>27.73</v>
       </c>
       <c r="P140" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q140" t="s">
         <v>96</v>
@@ -8824,11 +8874,11 @@
       <c r="J141">
         <v>63.2</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="1">
         <v>63.68</v>
       </c>
       <c r="P141" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q141" t="s">
         <v>96</v>
@@ -8877,17 +8927,17 @@
       <c r="J142">
         <v>77.47</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="1">
         <v>77.75</v>
       </c>
       <c r="M142" t="s">
         <v>87</v>
       </c>
       <c r="O142" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P142" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q142" t="s">
         <v>96</v>
@@ -8936,14 +8986,14 @@
       <c r="J143">
         <v>88.84</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="1">
         <v>89.43</v>
       </c>
       <c r="M143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P143" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q143" t="s">
         <v>96</v>
@@ -8992,14 +9042,14 @@
       <c r="J144">
         <v>87.98</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="1">
         <v>88.39</v>
       </c>
       <c r="M144" t="s">
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q144" t="s">
         <v>96</v>
@@ -9048,11 +9098,11 @@
       <c r="J145">
         <v>18.77</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="1">
         <v>19.32</v>
       </c>
       <c r="P145" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q145" t="s">
         <v>96</v>
@@ -9101,11 +9151,11 @@
       <c r="J146">
         <v>110.22</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="1">
         <v>110.34</v>
       </c>
       <c r="P146" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q146" t="s">
         <v>96</v>
@@ -9154,17 +9204,17 @@
       <c r="J147" t="s">
         <v>39</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="1">
         <v>118</v>
       </c>
       <c r="M147" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O147" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P147" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q147" t="s">
         <v>96</v>
@@ -9213,14 +9263,14 @@
       <c r="J148">
         <v>123.77</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="1">
         <v>124.46</v>
       </c>
       <c r="M148" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="P148" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q148" t="s">
         <v>96</v>
@@ -9269,17 +9319,17 @@
       <c r="J149">
         <v>74.040000000000006</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="1">
         <v>74.45</v>
       </c>
       <c r="M149" t="s">
         <v>87</v>
       </c>
       <c r="O149" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P149" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q149" t="s">
         <v>96</v>
@@ -9328,17 +9378,17 @@
       <c r="J150">
         <v>55.05</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="1">
         <v>55.51</v>
       </c>
       <c r="M150" t="s">
         <v>87</v>
       </c>
       <c r="O150" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P150" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q150" t="s">
         <v>96</v>
@@ -9387,17 +9437,17 @@
       <c r="J151">
         <v>64.150000000000006</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="1">
         <v>64.08</v>
       </c>
       <c r="M151" t="s">
+        <v>137</v>
+      </c>
+      <c r="O151" t="s">
         <v>110</v>
       </c>
-      <c r="O151" t="s">
-        <v>113</v>
-      </c>
       <c r="P151" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q151" t="s">
         <v>96</v>
@@ -9446,17 +9496,17 @@
       <c r="J152">
         <v>24.83</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="1">
         <v>25.72</v>
       </c>
       <c r="M152" t="s">
         <v>87</v>
       </c>
       <c r="O152" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P152" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q152" t="s">
         <v>96</v>
@@ -9505,14 +9555,14 @@
       <c r="J153">
         <v>94.76</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="1">
         <v>96.01</v>
       </c>
       <c r="M153" t="s">
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q153" t="s">
         <v>96</v>
@@ -9561,14 +9611,14 @@
       <c r="J154">
         <v>101.84</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="1">
         <v>100.48</v>
       </c>
       <c r="M154" t="s">
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q154" t="s">
         <v>96</v>
@@ -9617,14 +9667,14 @@
       <c r="J155">
         <v>91.25</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="1">
         <v>93.26</v>
       </c>
       <c r="M155" t="s">
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q155" t="s">
         <v>96</v>
@@ -9673,11 +9723,11 @@
       <c r="J156">
         <v>112.83</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="1">
         <v>112.33</v>
       </c>
       <c r="P156" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q156" t="s">
         <v>96</v>
@@ -9726,11 +9776,11 @@
       <c r="J157">
         <v>51.47</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="1">
         <v>53.31</v>
       </c>
       <c r="P157" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q157" t="s">
         <v>96</v>
@@ -9779,11 +9829,11 @@
       <c r="J158">
         <v>70.599999999999994</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="1">
         <v>71.849999999999994</v>
       </c>
       <c r="P158" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q158" t="s">
         <v>96</v>
@@ -9832,11 +9882,11 @@
       <c r="J159">
         <v>99.05</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="1">
         <v>100.42</v>
       </c>
       <c r="P159" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q159" t="s">
         <v>96</v>
@@ -9885,11 +9935,11 @@
       <c r="J160">
         <v>12.93</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="1">
         <v>13.32</v>
       </c>
       <c r="P160" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q160" t="s">
         <v>96</v>
@@ -9938,11 +9988,11 @@
       <c r="J161">
         <v>37.53</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="1">
         <v>37.65</v>
       </c>
       <c r="P161" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q161" t="s">
         <v>96</v>
@@ -9991,11 +10041,11 @@
       <c r="J162">
         <v>81.27</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="1">
         <v>83.46</v>
       </c>
       <c r="P162" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q162" t="s">
         <v>96</v>
@@ -10044,11 +10094,11 @@
       <c r="J163">
         <v>18.43</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="1">
         <v>18.68</v>
       </c>
       <c r="P163" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q163" t="s">
         <v>96</v>
@@ -10097,11 +10147,11 @@
       <c r="J164">
         <v>22.43</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="1">
         <v>20.41</v>
       </c>
       <c r="P164" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q164" t="s">
         <v>96</v>
@@ -10150,11 +10200,11 @@
       <c r="J165">
         <v>94.6</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="1">
         <v>95.11</v>
       </c>
       <c r="P165" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q165" t="s">
         <v>96</v>
@@ -10203,14 +10253,14 @@
       <c r="J166">
         <v>116.8</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="1">
         <v>116.96</v>
       </c>
       <c r="M166" t="s">
         <v>87</v>
       </c>
       <c r="P166" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q166" t="s">
         <v>96</v>
@@ -10259,11 +10309,11 @@
       <c r="J167">
         <v>132.55000000000001</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="1">
         <v>132.79</v>
       </c>
       <c r="P167" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q167" t="s">
         <v>96</v>
@@ -10312,11 +10362,11 @@
       <c r="J168">
         <v>50.25</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="1">
         <v>51.48</v>
       </c>
       <c r="P168" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q168" t="s">
         <v>96</v>
@@ -10365,11 +10415,11 @@
       <c r="J169">
         <v>21.22</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="1">
         <v>21.59</v>
       </c>
       <c r="P169" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q169" t="s">
         <v>96</v>
@@ -10418,14 +10468,14 @@
       <c r="J170">
         <v>71.25</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="1">
         <v>73.260000000000005</v>
       </c>
       <c r="M170" t="s">
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q170" t="s">
         <v>96</v>
@@ -10474,11 +10524,11 @@
       <c r="J171">
         <v>128.38999999999999</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="1">
         <v>129.15</v>
       </c>
       <c r="P171" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q171" t="s">
         <v>96</v>
@@ -10527,11 +10577,11 @@
       <c r="J172">
         <v>12.25</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="1">
         <v>12.41</v>
       </c>
       <c r="P172" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q172" t="s">
         <v>96</v>
@@ -10580,14 +10630,14 @@
       <c r="J173">
         <v>98.57</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="1">
         <v>98.88</v>
       </c>
       <c r="M173" t="s">
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q173" t="s">
         <v>96</v>
@@ -10636,11 +10686,11 @@
       <c r="J174">
         <v>9.08</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="1">
         <v>9.1199999999999992</v>
       </c>
       <c r="P174" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q174" t="s">
         <v>96</v>
@@ -10689,14 +10739,14 @@
       <c r="J175" t="s">
         <v>39</v>
       </c>
-      <c r="K175" t="s">
+      <c r="K175" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O175" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P175" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q175" t="s">
         <v>96</v>
@@ -10745,14 +10795,14 @@
       <c r="J176">
         <v>38.340000000000003</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="1">
         <v>37.549999999999997</v>
       </c>
       <c r="M176" t="s">
         <v>87</v>
       </c>
       <c r="P176" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q176" t="s">
         <v>96</v>
@@ -10801,11 +10851,11 @@
       <c r="J177">
         <v>25.6</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="1">
         <v>26.05</v>
       </c>
       <c r="P177" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q177" t="s">
         <v>96</v>
@@ -10854,14 +10904,14 @@
       <c r="J178">
         <v>59.25</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="1">
         <v>59.65</v>
       </c>
       <c r="M178" t="s">
         <v>85</v>
       </c>
       <c r="P178" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q178" t="s">
         <v>96</v>
@@ -10910,14 +10960,14 @@
       <c r="J179">
         <v>134.18</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="1">
         <v>134.80000000000001</v>
       </c>
       <c r="M179" t="s">
         <v>87</v>
       </c>
       <c r="P179" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q179" t="s">
         <v>96</v>
@@ -10966,11 +11016,11 @@
       <c r="J180">
         <v>60.95</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="1">
         <v>58.43</v>
       </c>
       <c r="P180" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q180" t="s">
         <v>96</v>
@@ -11019,11 +11069,11 @@
       <c r="J181">
         <v>33.15</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="1">
         <v>33.479999999999997</v>
       </c>
       <c r="P181" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q181" t="s">
         <v>96</v>
@@ -11072,11 +11122,11 @@
       <c r="J182">
         <v>121.59</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="1">
         <v>121.98</v>
       </c>
       <c r="P182" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q182" t="s">
         <v>96</v>
@@ -11125,14 +11175,14 @@
       <c r="J183">
         <v>67.72</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="1">
         <v>68.430000000000007</v>
       </c>
       <c r="M183" t="s">
         <v>85</v>
       </c>
       <c r="P183" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q183" t="s">
         <v>96</v>
@@ -11181,14 +11231,14 @@
       <c r="J184">
         <v>50.59</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="1">
         <v>50.75</v>
       </c>
       <c r="M184" t="s">
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q184" t="s">
         <v>96</v>
@@ -11237,11 +11287,11 @@
       <c r="J185">
         <v>36.1</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="1">
         <v>35.700000000000003</v>
       </c>
       <c r="P185" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q185" t="s">
         <v>96</v>
@@ -11290,11 +11340,11 @@
       <c r="J186">
         <v>52.27</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="1">
         <v>52.64</v>
       </c>
       <c r="P186" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q186" t="s">
         <v>96</v>
@@ -11343,11 +11393,11 @@
       <c r="J187">
         <v>46.12</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="1">
         <v>46.26</v>
       </c>
       <c r="P187" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q187" t="s">
         <v>96</v>
@@ -11396,11 +11446,11 @@
       <c r="J188">
         <v>26.68</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="1">
         <v>26.89</v>
       </c>
       <c r="P188" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q188" t="s">
         <v>96</v>
@@ -11449,11 +11499,11 @@
       <c r="J189">
         <v>79.02</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="1">
         <v>80.69</v>
       </c>
       <c r="P189" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q189" t="s">
         <v>96</v>
@@ -11502,11 +11552,11 @@
       <c r="J190">
         <v>10.47</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="1">
         <v>10.53</v>
       </c>
       <c r="P190" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q190" t="s">
         <v>96</v>
@@ -11555,11 +11605,11 @@
       <c r="J191">
         <v>16.45</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="1">
         <v>16.86</v>
       </c>
       <c r="P191" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q191" t="s">
         <v>96</v>
@@ -11608,14 +11658,14 @@
       <c r="J192">
         <v>128.52000000000001</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="1">
         <v>15.28</v>
       </c>
       <c r="L192" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P192" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q192" t="s">
         <v>96</v>
@@ -11664,11 +11714,11 @@
       <c r="J193">
         <v>81.95</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="1">
         <v>81.900000000000006</v>
       </c>
       <c r="P193" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q193" t="s">
         <v>96</v>
@@ -11717,11 +11767,11 @@
       <c r="J194">
         <v>15.42</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="1">
         <v>15.87</v>
       </c>
       <c r="P194" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q194" t="s">
         <v>96</v>
@@ -11770,11 +11820,11 @@
       <c r="J195">
         <v>58.31</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="1">
         <v>59.3</v>
       </c>
       <c r="P195" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q195" t="s">
         <v>96</v>
@@ -11823,11 +11873,11 @@
       <c r="J196">
         <v>59.55</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="1">
         <v>60.1</v>
       </c>
       <c r="P196" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q196" t="s">
         <v>96</v>
@@ -11876,11 +11926,11 @@
       <c r="J197">
         <v>27.73</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="1">
         <v>27.9</v>
       </c>
       <c r="P197" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q197" t="s">
         <v>96</v>
@@ -11929,14 +11979,14 @@
       <c r="J198">
         <v>113.77</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="1">
         <v>114.07</v>
       </c>
       <c r="M198" t="s">
         <v>85</v>
       </c>
       <c r="P198" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q198" t="s">
         <v>96</v>
@@ -11985,11 +12035,11 @@
       <c r="J199">
         <v>86.67</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="1">
         <v>85.72</v>
       </c>
       <c r="P199" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q199" t="s">
         <v>96</v>
@@ -12038,11 +12088,11 @@
       <c r="J200">
         <v>13.11</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="1">
         <v>13.23</v>
       </c>
       <c r="P200" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q200" t="s">
         <v>96</v>
@@ -12091,11 +12141,11 @@
       <c r="J201">
         <v>10.96</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="1">
         <v>10.59</v>
       </c>
       <c r="P201" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q201" t="s">
         <v>96</v>
@@ -12144,11 +12194,11 @@
       <c r="J202">
         <v>26.92</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="1">
         <v>27.37</v>
       </c>
       <c r="P202" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q202" t="s">
         <v>96</v>
@@ -12197,11 +12247,11 @@
       <c r="J203">
         <v>53.28</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="1">
         <v>53.54</v>
       </c>
       <c r="P203" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q203" t="s">
         <v>96</v>
@@ -12250,11 +12300,11 @@
       <c r="J204">
         <v>30.8</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="1">
         <v>30.97</v>
       </c>
       <c r="P204" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q204" t="s">
         <v>96</v>
@@ -12303,11 +12353,11 @@
       <c r="J205">
         <v>44.98</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="1">
         <v>45.4</v>
       </c>
       <c r="P205" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q205" t="s">
         <v>96</v>
@@ -12356,14 +12406,14 @@
       <c r="J206">
         <v>41.4</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="1">
         <v>10.33</v>
       </c>
       <c r="L206" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P206" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q206" t="s">
         <v>96</v>
@@ -12412,11 +12462,11 @@
       <c r="J207">
         <v>12.98</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="1">
         <v>13.2</v>
       </c>
       <c r="P207" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q207" t="s">
         <v>96</v>
@@ -12465,11 +12515,11 @@
       <c r="J208">
         <v>24.14</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="1">
         <v>24.79</v>
       </c>
       <c r="P208" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q208" t="s">
         <v>96</v>
@@ -12518,11 +12568,11 @@
       <c r="J209">
         <v>57.85</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="1">
         <v>53.56</v>
       </c>
       <c r="P209" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q209" t="s">
         <v>96</v>
@@ -12571,14 +12621,14 @@
       <c r="J210">
         <v>28.15</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="1">
         <v>28.76</v>
       </c>
       <c r="M210" t="s">
         <v>87</v>
       </c>
       <c r="P210" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q210" t="s">
         <v>96</v>
@@ -12627,14 +12677,14 @@
       <c r="J211">
         <v>59.07</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="1">
         <v>59.9</v>
       </c>
       <c r="M211" t="s">
         <v>87</v>
       </c>
       <c r="P211" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q211" t="s">
         <v>96</v>
@@ -12683,14 +12733,14 @@
       <c r="J212">
         <v>34.54</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="1">
         <v>35.26</v>
       </c>
       <c r="M212" t="s">
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q212" t="s">
         <v>96</v>
@@ -12739,11 +12789,11 @@
       <c r="J213">
         <v>32.21</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="1">
         <v>32.35</v>
       </c>
       <c r="P213" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q213" t="s">
         <v>96</v>
@@ -12792,14 +12842,14 @@
       <c r="J214">
         <v>24.37</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="1">
         <v>6.3</v>
       </c>
       <c r="L214" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P214" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q214" t="s">
         <v>96</v>
@@ -12848,14 +12898,14 @@
       <c r="J215">
         <v>24.43</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="1">
         <v>9.15</v>
       </c>
       <c r="L215" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P215" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q215" t="s">
         <v>96</v>
@@ -12904,11 +12954,11 @@
       <c r="J216">
         <v>41.4</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="1">
         <v>41.96</v>
       </c>
       <c r="P216" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q216" t="s">
         <v>96</v>
@@ -12957,11 +13007,11 @@
       <c r="J217">
         <v>13.88</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="1">
         <v>15.01</v>
       </c>
       <c r="P217" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q217" t="s">
         <v>96</v>
@@ -13010,11 +13060,11 @@
       <c r="J218">
         <v>25.33</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="1">
         <v>26.2</v>
       </c>
       <c r="P218" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q218" t="s">
         <v>96</v>
@@ -13063,11 +13113,11 @@
       <c r="J219">
         <v>54.28</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="1">
         <v>54.57</v>
       </c>
       <c r="P219" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q219" t="s">
         <v>96</v>
@@ -13116,11 +13166,11 @@
       <c r="J220">
         <v>86.5</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="1">
         <v>85.32</v>
       </c>
       <c r="P220" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q220" t="s">
         <v>96</v>
@@ -13169,11 +13219,11 @@
       <c r="J221">
         <v>4.97</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="1">
         <v>3.29</v>
       </c>
       <c r="P221" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q221" t="s">
         <v>96</v>
@@ -13222,11 +13272,11 @@
       <c r="J222">
         <v>42.65</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="1">
         <v>39.14</v>
       </c>
       <c r="P222" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q222" t="s">
         <v>96</v>
@@ -13275,11 +13325,11 @@
       <c r="J223">
         <v>78.14</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="1">
         <v>77.83</v>
       </c>
       <c r="P223" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q223" t="s">
         <v>96</v>
@@ -13328,11 +13378,11 @@
       <c r="J224">
         <v>88.82</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="1">
         <v>89.8</v>
       </c>
       <c r="P224" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q224" t="s">
         <v>96</v>
@@ -13381,11 +13431,11 @@
       <c r="J225">
         <v>55.96</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="1">
         <v>56.21</v>
       </c>
       <c r="P225" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q225" t="s">
         <v>96</v>
@@ -13434,11 +13484,11 @@
       <c r="J226">
         <v>81.78</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="1">
         <v>82.09</v>
       </c>
       <c r="P226" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q226" t="s">
         <v>96</v>
@@ -13487,11 +13537,11 @@
       <c r="J227">
         <v>37.299999999999997</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="1">
         <v>35.29</v>
       </c>
       <c r="P227" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q227" t="s">
         <v>96</v>
@@ -13540,11 +13590,11 @@
       <c r="J228">
         <v>118.97</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="1">
         <v>119.74</v>
       </c>
       <c r="P228" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q228" t="s">
         <v>96</v>
@@ -13593,11 +13643,11 @@
       <c r="J229">
         <v>30.42</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="1">
         <v>25.91</v>
       </c>
       <c r="P229" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q229" t="s">
         <v>96</v>
@@ -13646,11 +13696,11 @@
       <c r="J230">
         <v>14.97</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="1">
         <v>13.46</v>
       </c>
       <c r="P230" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q230" t="s">
         <v>96</v>
@@ -13699,11 +13749,11 @@
       <c r="J231">
         <v>65.58</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="1">
         <v>77</v>
       </c>
       <c r="P231" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q231" t="s">
         <v>96</v>
@@ -13752,11 +13802,11 @@
       <c r="J232">
         <v>77.44</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="1">
         <v>77.44</v>
       </c>
       <c r="P232" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q232" t="s">
         <v>96</v>
@@ -13805,11 +13855,11 @@
       <c r="J233">
         <v>73.63</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="1">
         <v>75.260000000000005</v>
       </c>
       <c r="P233" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q233" t="s">
         <v>96</v>
@@ -13858,11 +13908,11 @@
       <c r="J234">
         <v>12.18</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="1">
         <v>11.39</v>
       </c>
       <c r="P234" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q234" t="s">
         <v>96</v>
@@ -13911,11 +13961,11 @@
       <c r="J235">
         <v>47.35</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="1">
         <v>46.89</v>
       </c>
       <c r="P235" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q235" t="s">
         <v>96</v>
@@ -13964,14 +14014,14 @@
       <c r="J236">
         <v>10.039999999999999</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="1">
         <v>1.7</v>
       </c>
       <c r="O236" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P236" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q236" t="s">
         <v>96</v>
@@ -14020,11 +14070,11 @@
       <c r="J237">
         <v>13.71</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="1">
         <v>12.69</v>
       </c>
       <c r="P237" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q237" t="s">
         <v>96</v>
@@ -14073,11 +14123,11 @@
       <c r="J238">
         <v>21.08</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="1">
         <v>18.489999999999998</v>
       </c>
       <c r="P238" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q238" t="s">
         <v>96</v>
@@ -14126,11 +14176,11 @@
       <c r="J239">
         <v>10.51</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="1">
         <v>8.56</v>
       </c>
       <c r="P239" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q239" t="s">
         <v>96</v>
@@ -14179,14 +14229,14 @@
       <c r="J240" t="s">
         <v>39</v>
       </c>
-      <c r="K240" t="s">
+      <c r="K240" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N240">
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q240" t="s">
         <v>96</v>
@@ -14235,11 +14285,11 @@
       <c r="J241">
         <v>114.18</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="1">
         <v>114.54</v>
       </c>
       <c r="P241" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q241" t="s">
         <v>96</v>
@@ -14288,11 +14338,11 @@
       <c r="J242">
         <v>50.29</v>
       </c>
-      <c r="K242">
+      <c r="K242" s="1">
         <v>49.61</v>
       </c>
       <c r="P242" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q242" t="s">
         <v>96</v>
@@ -14341,11 +14391,11 @@
       <c r="J243">
         <v>136.19999999999999</v>
       </c>
-      <c r="K243">
+      <c r="K243" s="1">
         <v>136.99</v>
       </c>
       <c r="P243" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q243" t="s">
         <v>96</v>
@@ -14394,14 +14444,14 @@
       <c r="J244">
         <v>9.17</v>
       </c>
-      <c r="K244">
+      <c r="K244" s="1">
         <v>1.67</v>
       </c>
       <c r="O244" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P244" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q244" t="s">
         <v>96</v>
@@ -14450,11 +14500,11 @@
       <c r="J245">
         <v>15.79</v>
       </c>
-      <c r="K245">
+      <c r="K245" s="1">
         <v>15.9</v>
       </c>
       <c r="P245" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q245" t="s">
         <v>96</v>
@@ -14503,11 +14553,11 @@
       <c r="J246">
         <v>110.37</v>
       </c>
-      <c r="K246">
+      <c r="K246" s="1">
         <v>112.01</v>
       </c>
       <c r="P246" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q246" t="s">
         <v>96</v>
@@ -14556,11 +14606,11 @@
       <c r="J247">
         <v>115.9</v>
       </c>
-      <c r="K247">
+      <c r="K247" s="1">
         <v>118.03</v>
       </c>
       <c r="P247" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q247" t="s">
         <v>96</v>
@@ -14609,11 +14659,11 @@
       <c r="J248">
         <v>114.41</v>
       </c>
-      <c r="K248">
+      <c r="K248" s="1">
         <v>114.67</v>
       </c>
       <c r="P248" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q248" t="s">
         <v>96</v>
@@ -14662,11 +14712,11 @@
       <c r="J249">
         <v>132.16999999999999</v>
       </c>
-      <c r="K249">
+      <c r="K249" s="1">
         <v>133.02000000000001</v>
       </c>
       <c r="P249" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q249" t="s">
         <v>96</v>
@@ -14715,11 +14765,11 @@
       <c r="J250">
         <v>138.66</v>
       </c>
-      <c r="K250">
+      <c r="K250" s="1">
         <v>140.86000000000001</v>
       </c>
       <c r="P250" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q250" t="s">
         <v>96</v>
@@ -14768,11 +14818,11 @@
       <c r="J251">
         <v>42.72</v>
       </c>
-      <c r="K251">
+      <c r="K251" s="1">
         <v>44.1</v>
       </c>
       <c r="P251" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q251" t="s">
         <v>96</v>
@@ -14821,11 +14871,11 @@
       <c r="J252">
         <v>70.33</v>
       </c>
-      <c r="K252">
+      <c r="K252" s="1">
         <v>70.03</v>
       </c>
       <c r="P252" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q252" t="s">
         <v>96</v>
@@ -14874,11 +14924,11 @@
       <c r="J253">
         <v>9.56</v>
       </c>
-      <c r="K253">
+      <c r="K253" s="1">
         <v>8.34</v>
       </c>
       <c r="P253" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q253" t="s">
         <v>96</v>
@@ -14927,11 +14977,11 @@
       <c r="J254">
         <v>8.4</v>
       </c>
-      <c r="K254">
+      <c r="K254" s="1">
         <v>7.28</v>
       </c>
       <c r="P254" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q254" t="s">
         <v>96</v>
@@ -14980,11 +15030,11 @@
       <c r="J255">
         <v>47.62</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="1">
         <v>47.97</v>
       </c>
       <c r="P255" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q255" t="s">
         <v>96</v>
@@ -15033,11 +15083,11 @@
       <c r="J256">
         <v>15.22</v>
       </c>
-      <c r="K256">
+      <c r="K256" s="1">
         <v>13</v>
       </c>
       <c r="P256" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q256" t="s">
         <v>96</v>
@@ -15086,11 +15136,11 @@
       <c r="J257">
         <v>13.32</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="1">
         <v>12.88</v>
       </c>
       <c r="P257" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q257" t="s">
         <v>96</v>
@@ -15139,11 +15189,11 @@
       <c r="J258">
         <v>140.76</v>
       </c>
-      <c r="K258">
+      <c r="K258" s="1">
         <v>141.44999999999999</v>
       </c>
       <c r="P258" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q258" t="s">
         <v>96</v>
@@ -15192,11 +15242,11 @@
       <c r="J259">
         <v>43.99</v>
       </c>
-      <c r="K259">
+      <c r="K259" s="1">
         <v>44.16</v>
       </c>
       <c r="P259" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q259" t="s">
         <v>96</v>
@@ -15245,11 +15295,11 @@
       <c r="J260">
         <v>38.31</v>
       </c>
-      <c r="K260">
+      <c r="K260" s="1">
         <v>39.68</v>
       </c>
       <c r="P260" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q260" t="s">
         <v>96</v>
@@ -15298,11 +15348,11 @@
       <c r="J261">
         <v>66.010000000000005</v>
       </c>
-      <c r="K261">
+      <c r="K261" s="1">
         <v>67.09</v>
       </c>
       <c r="P261" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q261" t="s">
         <v>96</v>
@@ -15351,11 +15401,11 @@
       <c r="J262">
         <v>21.84</v>
       </c>
-      <c r="K262">
+      <c r="K262" s="1">
         <v>21.9</v>
       </c>
       <c r="P262" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q262" t="s">
         <v>96</v>
@@ -15404,11 +15454,11 @@
       <c r="J263">
         <v>114.18</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="1">
         <v>114.94</v>
       </c>
       <c r="P263" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q263" t="s">
         <v>96</v>
@@ -15457,11 +15507,11 @@
       <c r="J264">
         <v>55.86</v>
       </c>
-      <c r="K264">
+      <c r="K264" s="1">
         <v>55.93</v>
       </c>
       <c r="P264" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q264" t="s">
         <v>96</v>
@@ -15510,14 +15560,14 @@
       <c r="J265">
         <v>18.7</v>
       </c>
-      <c r="K265" t="s">
+      <c r="K265" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O265" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P265" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q265" t="s">
         <v>96</v>
@@ -15566,11 +15616,11 @@
       <c r="J266">
         <v>66.92</v>
       </c>
-      <c r="K266">
+      <c r="K266" s="1">
         <v>66.84</v>
       </c>
       <c r="P266" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q266" t="s">
         <v>96</v>
@@ -15619,11 +15669,11 @@
       <c r="J267">
         <v>51.99</v>
       </c>
-      <c r="K267">
+      <c r="K267" s="1">
         <v>52.36</v>
       </c>
       <c r="P267" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q267" t="s">
         <v>96</v>
@@ -15672,11 +15722,11 @@
       <c r="J268">
         <v>27.96</v>
       </c>
-      <c r="K268">
+      <c r="K268" s="1">
         <v>27.16</v>
       </c>
       <c r="P268" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q268" t="s">
         <v>96</v>
@@ -15725,11 +15775,11 @@
       <c r="J269">
         <v>39.89</v>
       </c>
-      <c r="K269">
+      <c r="K269" s="1">
         <v>39.4</v>
       </c>
       <c r="P269" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q269" t="s">
         <v>96</v>
@@ -15778,11 +15828,11 @@
       <c r="J270">
         <v>132.83000000000001</v>
       </c>
-      <c r="K270">
+      <c r="K270" s="1">
         <v>133.53</v>
       </c>
       <c r="P270" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q270" t="s">
         <v>96</v>
@@ -15831,11 +15881,11 @@
       <c r="J271">
         <v>76.900000000000006</v>
       </c>
-      <c r="K271">
+      <c r="K271" s="1">
         <v>75.510000000000005</v>
       </c>
       <c r="P271" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q271" t="s">
         <v>96</v>
@@ -15884,11 +15934,11 @@
       <c r="J272">
         <v>5.49</v>
       </c>
-      <c r="K272">
+      <c r="K272" s="1">
         <v>2.71</v>
       </c>
       <c r="P272" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q272" t="s">
         <v>96</v>
@@ -15937,11 +15987,11 @@
       <c r="J273">
         <v>13.87</v>
       </c>
-      <c r="K273">
+      <c r="K273" s="1">
         <v>13.16</v>
       </c>
       <c r="P273" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q273" t="s">
         <v>96</v>
@@ -15990,11 +16040,11 @@
       <c r="J274">
         <v>33.840000000000003</v>
       </c>
-      <c r="K274">
+      <c r="K274" s="1">
         <v>34.26</v>
       </c>
       <c r="P274" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q274" t="s">
         <v>96</v>
@@ -16043,17 +16093,17 @@
       <c r="J275">
         <v>86.08</v>
       </c>
-      <c r="K275">
+      <c r="K275" s="1">
         <v>86.47</v>
       </c>
       <c r="M275" t="s">
         <v>85</v>
       </c>
       <c r="O275" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P275" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q275" t="s">
         <v>96</v>
@@ -16102,11 +16152,11 @@
       <c r="J276">
         <v>67.819999999999993</v>
       </c>
-      <c r="K276">
+      <c r="K276" s="1">
         <v>67.3</v>
       </c>
       <c r="P276" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q276" t="s">
         <v>96</v>
@@ -16155,11 +16205,11 @@
       <c r="J277">
         <v>16.7</v>
       </c>
-      <c r="K277">
+      <c r="K277" s="1">
         <v>16.420000000000002</v>
       </c>
       <c r="P277" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q277" t="s">
         <v>96</v>
@@ -16208,11 +16258,11 @@
       <c r="J278">
         <v>63.74</v>
       </c>
-      <c r="K278">
+      <c r="K278" s="1">
         <v>62.86</v>
       </c>
       <c r="P278" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q278" t="s">
         <v>96</v>
@@ -16261,11 +16311,11 @@
       <c r="J279">
         <v>67.36</v>
       </c>
-      <c r="K279">
+      <c r="K279" s="1">
         <v>67.459999999999994</v>
       </c>
       <c r="P279" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q279" t="s">
         <v>96</v>
@@ -16314,7 +16364,7 @@
       <c r="J280">
         <v>103.77</v>
       </c>
-      <c r="K280">
+      <c r="K280" s="1">
         <v>104.38</v>
       </c>
       <c r="P280" t="s">
@@ -16367,7 +16417,7 @@
       <c r="J281">
         <v>120.44</v>
       </c>
-      <c r="K281">
+      <c r="K281" s="1">
         <v>120.73</v>
       </c>
       <c r="M281" t="s">
@@ -16423,7 +16473,7 @@
       <c r="J282">
         <v>42.76</v>
       </c>
-      <c r="K282">
+      <c r="K282" s="1">
         <v>42.61</v>
       </c>
       <c r="P282" t="s">
@@ -16476,7 +16526,7 @@
       <c r="J283">
         <v>12.9</v>
       </c>
-      <c r="K283">
+      <c r="K283" s="1">
         <v>12.65</v>
       </c>
       <c r="P283" t="s">
@@ -16529,7 +16579,7 @@
       <c r="J284">
         <v>12.24</v>
       </c>
-      <c r="K284">
+      <c r="K284" s="1">
         <v>12.15</v>
       </c>
       <c r="O284" t="s">
@@ -16585,7 +16635,7 @@
       <c r="J285">
         <v>8.0299999999999994</v>
       </c>
-      <c r="K285">
+      <c r="K285" s="1">
         <v>7.98</v>
       </c>
       <c r="M285" t="s">
@@ -16641,7 +16691,7 @@
       <c r="J286">
         <v>18.329999999999998</v>
       </c>
-      <c r="K286">
+      <c r="K286" s="1">
         <v>18.36</v>
       </c>
       <c r="P286" t="s">
@@ -16694,7 +16744,7 @@
       <c r="J287">
         <v>36.79</v>
       </c>
-      <c r="K287">
+      <c r="K287" s="1">
         <v>37.81</v>
       </c>
       <c r="P287" t="s">
@@ -16747,7 +16797,7 @@
       <c r="J288">
         <v>18.2</v>
       </c>
-      <c r="K288">
+      <c r="K288" s="1">
         <v>17.8</v>
       </c>
       <c r="M288" t="s">
@@ -16806,7 +16856,7 @@
       <c r="J289">
         <v>27.62</v>
       </c>
-      <c r="K289">
+      <c r="K289" s="1">
         <v>26.15</v>
       </c>
       <c r="P289" t="s">
@@ -16859,7 +16909,7 @@
       <c r="J290">
         <v>46.8</v>
       </c>
-      <c r="K290">
+      <c r="K290" s="1">
         <v>45.99</v>
       </c>
       <c r="P290" t="s">
@@ -16912,7 +16962,7 @@
       <c r="J291">
         <v>90.04</v>
       </c>
-      <c r="K291">
+      <c r="K291" s="1">
         <v>89.87</v>
       </c>
       <c r="M291" t="s">
@@ -16968,7 +17018,7 @@
       <c r="J292">
         <v>13.74</v>
       </c>
-      <c r="K292">
+      <c r="K292" s="1">
         <v>14.48</v>
       </c>
       <c r="P292" t="s">
@@ -17021,7 +17071,7 @@
       <c r="J293">
         <v>7.97</v>
       </c>
-      <c r="K293">
+      <c r="K293" s="1">
         <v>7.98</v>
       </c>
       <c r="P293" t="s">
@@ -17074,7 +17124,7 @@
       <c r="J294">
         <v>12</v>
       </c>
-      <c r="K294">
+      <c r="K294" s="1">
         <v>12</v>
       </c>
       <c r="P294" t="s">
@@ -17127,7 +17177,7 @@
       <c r="J295">
         <v>102.38</v>
       </c>
-      <c r="K295">
+      <c r="K295" s="1">
         <v>101.88</v>
       </c>
       <c r="P295" t="s">
@@ -17180,7 +17230,7 @@
       <c r="J296">
         <v>15.2</v>
       </c>
-      <c r="K296">
+      <c r="K296" s="1">
         <v>15.5</v>
       </c>
       <c r="P296" t="s">
@@ -17233,7 +17283,7 @@
       <c r="J297">
         <v>48.82</v>
       </c>
-      <c r="K297">
+      <c r="K297" s="1">
         <v>48.88</v>
       </c>
       <c r="P297" t="s">
@@ -17286,7 +17336,7 @@
       <c r="J298">
         <v>104.14</v>
       </c>
-      <c r="K298">
+      <c r="K298" s="1">
         <v>104.42</v>
       </c>
       <c r="P298" t="s">
@@ -17339,7 +17389,7 @@
       <c r="J299">
         <v>55.97</v>
       </c>
-      <c r="K299">
+      <c r="K299" s="1">
         <v>56.34</v>
       </c>
       <c r="P299" t="s">
@@ -17392,7 +17442,7 @@
       <c r="J300">
         <v>74.13</v>
       </c>
-      <c r="K300">
+      <c r="K300" s="1">
         <v>4.87</v>
       </c>
       <c r="N300">
@@ -17448,7 +17498,7 @@
       <c r="J301">
         <v>108.46</v>
       </c>
-      <c r="K301">
+      <c r="K301" s="1">
         <v>103.75</v>
       </c>
       <c r="L301" t="s">
@@ -17504,7 +17554,7 @@
       <c r="J302">
         <v>108.12</v>
       </c>
-      <c r="K302">
+      <c r="K302" s="1">
         <v>109.65</v>
       </c>
       <c r="P302" t="s">
@@ -17557,7 +17607,7 @@
       <c r="J303">
         <v>12.43</v>
       </c>
-      <c r="K303">
+      <c r="K303" s="1">
         <v>12.55</v>
       </c>
       <c r="P303" t="s">
@@ -17610,7 +17660,7 @@
       <c r="J304">
         <v>59.14</v>
       </c>
-      <c r="K304">
+      <c r="K304" s="1">
         <v>60.68</v>
       </c>
       <c r="P304" t="s">
@@ -17663,7 +17713,7 @@
       <c r="J305">
         <v>64.39</v>
       </c>
-      <c r="K305">
+      <c r="K305" s="1">
         <v>64.86</v>
       </c>
       <c r="P305" t="s">
@@ -17716,7 +17766,7 @@
       <c r="J306">
         <v>41.47</v>
       </c>
-      <c r="K306">
+      <c r="K306" s="1">
         <v>42.4</v>
       </c>
       <c r="P306" t="s">
@@ -17769,7 +17819,7 @@
       <c r="J307">
         <v>92.45</v>
       </c>
-      <c r="K307">
+      <c r="K307" s="1">
         <v>91.87</v>
       </c>
       <c r="M307" t="s">
@@ -17825,11 +17875,11 @@
       <c r="J308">
         <v>119.3</v>
       </c>
-      <c r="K308">
+      <c r="K308" s="1">
         <v>122.02</v>
       </c>
       <c r="M308" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="P308" t="s">
         <v>96</v>
@@ -17881,7 +17931,7 @@
       <c r="J309">
         <v>63.88</v>
       </c>
-      <c r="K309">
+      <c r="K309" s="1">
         <v>62.7</v>
       </c>
       <c r="P309" t="s">
@@ -17934,7 +17984,7 @@
       <c r="J310">
         <v>83.5</v>
       </c>
-      <c r="K310">
+      <c r="K310" s="1">
         <v>84.26</v>
       </c>
       <c r="P310" t="s">
@@ -17987,7 +18037,7 @@
       <c r="J311" t="s">
         <v>39</v>
       </c>
-      <c r="K311">
+      <c r="K311" s="1">
         <v>11.24</v>
       </c>
       <c r="N311">
@@ -18043,7 +18093,7 @@
       <c r="J312">
         <v>68.3</v>
       </c>
-      <c r="K312">
+      <c r="K312" s="1">
         <v>6.47</v>
       </c>
       <c r="N312">
@@ -18099,11 +18149,11 @@
       <c r="J313">
         <v>31.71</v>
       </c>
-      <c r="K313">
+      <c r="K313" s="1">
         <v>31.82</v>
       </c>
       <c r="M313" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P313" t="s">
         <v>96</v>
@@ -18155,7 +18205,7 @@
       <c r="J314">
         <v>31.19</v>
       </c>
-      <c r="K314">
+      <c r="K314" s="1">
         <v>31.81</v>
       </c>
       <c r="P314" t="s">
@@ -18208,7 +18258,7 @@
       <c r="J315">
         <v>41.89</v>
       </c>
-      <c r="K315">
+      <c r="K315" s="1">
         <v>42.47</v>
       </c>
       <c r="M315" t="s">
@@ -18264,7 +18314,7 @@
       <c r="J316">
         <v>113.04</v>
       </c>
-      <c r="K316">
+      <c r="K316" s="1">
         <v>113.93</v>
       </c>
       <c r="P316" t="s">
@@ -18317,7 +18367,7 @@
       <c r="J317">
         <v>2.59</v>
       </c>
-      <c r="K317">
+      <c r="K317" s="1">
         <v>10.45</v>
       </c>
       <c r="M317" t="s">
@@ -18327,7 +18377,7 @@
         <v>1</v>
       </c>
       <c r="O317" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P317" t="s">
         <v>96</v>
@@ -18379,7 +18429,7 @@
       <c r="J318">
         <v>5.09</v>
       </c>
-      <c r="K318">
+      <c r="K318" s="1">
         <v>4.53</v>
       </c>
       <c r="P318" t="s">
@@ -18432,7 +18482,7 @@
       <c r="J319">
         <v>17.38</v>
       </c>
-      <c r="K319">
+      <c r="K319" s="1">
         <v>17.690000000000001</v>
       </c>
       <c r="P319" t="s">
@@ -18485,14 +18535,14 @@
       <c r="J320">
         <v>32.200000000000003</v>
       </c>
-      <c r="K320">
+      <c r="K320" s="1">
         <v>32.01</v>
       </c>
       <c r="M320" t="s">
         <v>79</v>
       </c>
       <c r="O320" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P320" t="s">
         <v>96</v>
@@ -18544,7 +18594,7 @@
       <c r="J321">
         <v>125.76</v>
       </c>
-      <c r="K321">
+      <c r="K321" s="1">
         <v>126.47</v>
       </c>
       <c r="P321" t="s">
@@ -18597,7 +18647,7 @@
       <c r="J322">
         <v>73.67</v>
       </c>
-      <c r="K322">
+      <c r="K322" s="1">
         <v>74.290000000000006</v>
       </c>
       <c r="P322" t="s">
@@ -18650,7 +18700,7 @@
       <c r="J323">
         <v>105.17</v>
       </c>
-      <c r="K323">
+      <c r="K323" s="1">
         <v>105.68</v>
       </c>
       <c r="P323" t="s">
@@ -18703,7 +18753,7 @@
       <c r="J324">
         <v>79.709999999999994</v>
       </c>
-      <c r="K324">
+      <c r="K324" s="1">
         <v>80.36</v>
       </c>
       <c r="M324" t="s">
@@ -18759,7 +18809,7 @@
       <c r="J325">
         <v>16.329999999999998</v>
       </c>
-      <c r="K325">
+      <c r="K325" s="1">
         <v>13.7</v>
       </c>
       <c r="L325" t="s">
@@ -18815,7 +18865,7 @@
       <c r="J326">
         <v>116.58</v>
       </c>
-      <c r="K326">
+      <c r="K326" s="1">
         <v>117.43</v>
       </c>
       <c r="M326" t="s">
@@ -18871,7 +18921,7 @@
       <c r="J327">
         <v>88.5</v>
       </c>
-      <c r="K327">
+      <c r="K327" s="1">
         <v>88.37</v>
       </c>
       <c r="P327" t="s">
@@ -18924,14 +18974,14 @@
       <c r="J328">
         <v>66.569999999999993</v>
       </c>
-      <c r="K328">
+      <c r="K328" s="1">
         <v>48.2</v>
       </c>
       <c r="M328" t="s">
         <v>51</v>
       </c>
       <c r="O328" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P328" t="s">
         <v>96</v>
@@ -18983,7 +19033,7 @@
       <c r="J329">
         <v>31.21</v>
       </c>
-      <c r="K329">
+      <c r="K329" s="1">
         <v>31.17</v>
       </c>
       <c r="P329" t="s">
@@ -19036,7 +19086,7 @@
       <c r="J330">
         <v>122.32</v>
       </c>
-      <c r="K330">
+      <c r="K330" s="1">
         <v>121.08</v>
       </c>
       <c r="M330" t="s">
@@ -19092,14 +19142,14 @@
       <c r="J331" t="s">
         <v>39</v>
       </c>
-      <c r="K331">
+      <c r="K331" s="1">
         <v>12.54</v>
       </c>
       <c r="N331">
         <v>1</v>
       </c>
       <c r="O331" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P331" t="s">
         <v>96</v>
@@ -19151,7 +19201,7 @@
       <c r="J332">
         <v>47.75</v>
       </c>
-      <c r="K332">
+      <c r="K332" s="1">
         <v>47.47</v>
       </c>
       <c r="P332" t="s">
@@ -19204,7 +19254,7 @@
       <c r="J333">
         <v>125.21</v>
       </c>
-      <c r="K333">
+      <c r="K333" s="1">
         <v>125.45</v>
       </c>
       <c r="P333" t="s">
@@ -19257,7 +19307,7 @@
       <c r="J334">
         <v>40.21</v>
       </c>
-      <c r="K334">
+      <c r="K334" s="1">
         <v>38.6</v>
       </c>
       <c r="L334" t="s">
@@ -19313,7 +19363,7 @@
       <c r="J335">
         <v>32.21</v>
       </c>
-      <c r="K335">
+      <c r="K335" s="1">
         <v>35.18</v>
       </c>
       <c r="M335" t="s">
@@ -19369,7 +19419,7 @@
       <c r="J336" t="s">
         <v>39</v>
       </c>
-      <c r="K336" t="s">
+      <c r="K336" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M336" t="s">
@@ -19379,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="O336" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P336" t="s">
         <v>96</v>
@@ -19431,7 +19481,7 @@
       <c r="J337">
         <v>117.26</v>
       </c>
-      <c r="K337">
+      <c r="K337" s="1">
         <v>117.24</v>
       </c>
       <c r="P337" t="s">
@@ -19484,7 +19534,7 @@
       <c r="J338">
         <v>28.1</v>
       </c>
-      <c r="K338">
+      <c r="K338" s="1">
         <v>28.46</v>
       </c>
       <c r="P338" t="s">
@@ -19537,7 +19587,7 @@
       <c r="J339" t="s">
         <v>39</v>
       </c>
-      <c r="K339">
+      <c r="K339" s="1">
         <v>14.65</v>
       </c>
       <c r="N339">
@@ -19593,7 +19643,7 @@
       <c r="J340">
         <v>135.77000000000001</v>
       </c>
-      <c r="K340">
+      <c r="K340" s="1">
         <v>137.01</v>
       </c>
       <c r="M340" t="s">
@@ -19649,7 +19699,7 @@
       <c r="J341">
         <v>44.25</v>
       </c>
-      <c r="K341">
+      <c r="K341" s="1">
         <v>39.81</v>
       </c>
       <c r="M341" t="s">
@@ -19708,7 +19758,7 @@
       <c r="J342">
         <v>106.18</v>
       </c>
-      <c r="K342">
+      <c r="K342" s="1">
         <v>107.11</v>
       </c>
       <c r="P342" t="s">
@@ -19761,7 +19811,7 @@
       <c r="J343">
         <v>54.91</v>
       </c>
-      <c r="K343">
+      <c r="K343" s="1">
         <v>55.19</v>
       </c>
       <c r="M343" t="s">
@@ -19817,7 +19867,7 @@
       <c r="J344">
         <v>45.92</v>
       </c>
-      <c r="K344">
+      <c r="K344" s="1">
         <v>44.63</v>
       </c>
       <c r="P344" t="s">
@@ -19870,7 +19920,7 @@
       <c r="J345">
         <v>93.04</v>
       </c>
-      <c r="K345">
+      <c r="K345" s="1">
         <v>93.86</v>
       </c>
       <c r="P345" t="s">
@@ -19923,7 +19973,7 @@
       <c r="J346">
         <v>25.97</v>
       </c>
-      <c r="K346">
+      <c r="K346" s="1">
         <v>26.32</v>
       </c>
       <c r="P346" t="s">
@@ -19976,7 +20026,7 @@
       <c r="J347">
         <v>20.56</v>
       </c>
-      <c r="K347">
+      <c r="K347" s="1">
         <v>19.309999999999999</v>
       </c>
       <c r="P347" t="s">
@@ -20029,7 +20079,7 @@
       <c r="J348">
         <v>34.630000000000003</v>
       </c>
-      <c r="K348">
+      <c r="K348" s="1">
         <v>32.24</v>
       </c>
       <c r="L348" t="s">
@@ -20085,7 +20135,7 @@
       <c r="J349">
         <v>122.37</v>
       </c>
-      <c r="K349">
+      <c r="K349" s="1">
         <v>122.68</v>
       </c>
       <c r="P349" t="s">
@@ -20138,7 +20188,7 @@
       <c r="J350">
         <v>34.56</v>
       </c>
-      <c r="K350">
+      <c r="K350" s="1">
         <v>34.4</v>
       </c>
       <c r="P350" t="s">
@@ -20191,7 +20241,7 @@
       <c r="J351">
         <v>48.86</v>
       </c>
-      <c r="K351">
+      <c r="K351" s="1">
         <v>49.93</v>
       </c>
       <c r="P351" t="s">
@@ -20244,7 +20294,7 @@
       <c r="J352">
         <v>119.93</v>
       </c>
-      <c r="K352">
+      <c r="K352" s="1">
         <v>120.77</v>
       </c>
       <c r="P352" t="s">
@@ -20297,7 +20347,7 @@
       <c r="J353">
         <v>129.5</v>
       </c>
-      <c r="K353">
+      <c r="K353" s="1">
         <v>130.51</v>
       </c>
       <c r="P353" t="s">
@@ -20350,7 +20400,7 @@
       <c r="J354" t="s">
         <v>39</v>
       </c>
-      <c r="K354" t="s">
+      <c r="K354" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N354">
@@ -20406,7 +20456,7 @@
       <c r="J355">
         <v>131.12</v>
       </c>
-      <c r="K355">
+      <c r="K355" s="1">
         <v>130.29</v>
       </c>
       <c r="P355" t="s">
@@ -20459,7 +20509,7 @@
       <c r="J356">
         <v>49.43</v>
       </c>
-      <c r="K356">
+      <c r="K356" s="1">
         <v>49.86</v>
       </c>
       <c r="P356" t="s">
@@ -20512,7 +20562,7 @@
       <c r="J357">
         <v>36.85</v>
       </c>
-      <c r="K357">
+      <c r="K357" s="1">
         <v>42.32</v>
       </c>
       <c r="P357" t="s">
@@ -20565,7 +20615,7 @@
       <c r="J358">
         <v>64.790000000000006</v>
       </c>
-      <c r="K358">
+      <c r="K358" s="1">
         <v>65.03</v>
       </c>
       <c r="P358" t="s">
@@ -20618,7 +20668,7 @@
       <c r="J359">
         <v>37.72</v>
       </c>
-      <c r="K359">
+      <c r="K359" s="1">
         <v>34.630000000000003</v>
       </c>
       <c r="L359" t="s">
@@ -20674,7 +20724,7 @@
       <c r="J360">
         <v>94.31</v>
       </c>
-      <c r="K360">
+      <c r="K360" s="1">
         <v>97.14</v>
       </c>
       <c r="P360" t="s">
@@ -20727,7 +20777,7 @@
       <c r="J361">
         <v>58.36</v>
       </c>
-      <c r="K361">
+      <c r="K361" s="1">
         <v>61.69</v>
       </c>
       <c r="P361" t="s">
@@ -20780,7 +20830,7 @@
       <c r="J362">
         <v>37.92</v>
       </c>
-      <c r="K362">
+      <c r="K362" s="1">
         <v>37.57</v>
       </c>
       <c r="P362" t="s">
@@ -20833,7 +20883,7 @@
       <c r="J363">
         <v>105.03</v>
       </c>
-      <c r="K363">
+      <c r="K363" s="1">
         <v>105.5</v>
       </c>
       <c r="P363" t="s">
@@ -20886,7 +20936,7 @@
       <c r="J364">
         <v>83.02</v>
       </c>
-      <c r="K364">
+      <c r="K364" s="1">
         <v>83.37</v>
       </c>
       <c r="M364" t="s">
@@ -20942,7 +20992,7 @@
       <c r="J365">
         <v>113.07</v>
       </c>
-      <c r="K365">
+      <c r="K365" s="1">
         <v>112.67</v>
       </c>
       <c r="M365" t="s">
@@ -20998,7 +21048,7 @@
       <c r="J366">
         <v>44.52</v>
       </c>
-      <c r="K366">
+      <c r="K366" s="1">
         <v>44.87</v>
       </c>
       <c r="P366" t="s">
@@ -21051,7 +21101,7 @@
       <c r="J367">
         <v>16.37</v>
       </c>
-      <c r="K367">
+      <c r="K367" s="1">
         <v>14.98</v>
       </c>
       <c r="P367" t="s">
@@ -21104,7 +21154,7 @@
       <c r="J368">
         <v>44.55</v>
       </c>
-      <c r="K368">
+      <c r="K368" s="1">
         <v>45.04</v>
       </c>
       <c r="P368" t="s">
@@ -21157,7 +21207,7 @@
       <c r="J369" t="s">
         <v>39</v>
       </c>
-      <c r="K369">
+      <c r="K369" s="1">
         <v>7.64</v>
       </c>
       <c r="M369" t="s">
@@ -21216,7 +21266,7 @@
       <c r="J370">
         <v>148.56</v>
       </c>
-      <c r="K370">
+      <c r="K370" s="1">
         <v>142.91</v>
       </c>
       <c r="L370" t="s">
@@ -21275,7 +21325,7 @@
       <c r="J371">
         <v>86.65</v>
       </c>
-      <c r="K371">
+      <c r="K371" s="1">
         <v>89.75</v>
       </c>
       <c r="M371" t="s">
@@ -21331,11 +21381,11 @@
       <c r="J372">
         <v>76.84</v>
       </c>
-      <c r="K372">
+      <c r="K372" s="1">
         <v>77.5</v>
       </c>
       <c r="P372" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q372" t="s">
         <v>96</v>
@@ -21384,11 +21434,11 @@
       <c r="J373">
         <v>46</v>
       </c>
-      <c r="K373">
+      <c r="K373" s="1">
         <v>46.36</v>
       </c>
       <c r="P373" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q373" t="s">
         <v>96</v>
@@ -21437,11 +21487,11 @@
       <c r="J374">
         <v>6.29</v>
       </c>
-      <c r="K374">
+      <c r="K374" s="1">
         <v>5.12</v>
       </c>
       <c r="P374" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q374" t="s">
         <v>96</v>
@@ -21490,14 +21540,14 @@
       <c r="J375" t="s">
         <v>39</v>
       </c>
-      <c r="K375" t="s">
+      <c r="K375" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M375" t="s">
         <v>55</v>
       </c>
       <c r="P375" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q375" t="s">
         <v>96</v>
@@ -21546,11 +21596,11 @@
       <c r="J376">
         <v>21.26</v>
       </c>
-      <c r="K376">
+      <c r="K376" s="1">
         <v>14.32</v>
       </c>
       <c r="P376" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q376" t="s">
         <v>96</v>
@@ -21599,11 +21649,11 @@
       <c r="J377">
         <v>73.239999999999995</v>
       </c>
-      <c r="K377">
+      <c r="K377" s="1">
         <v>72.72</v>
       </c>
       <c r="P377" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q377" t="s">
         <v>96</v>
@@ -21652,11 +21702,11 @@
       <c r="J378">
         <v>32.11</v>
       </c>
-      <c r="K378">
+      <c r="K378" s="1">
         <v>32.29</v>
       </c>
       <c r="P378" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q378" t="s">
         <v>96</v>
@@ -21705,11 +21755,11 @@
       <c r="J379">
         <v>77.31</v>
       </c>
-      <c r="K379">
+      <c r="K379" s="1">
         <v>77.48</v>
       </c>
       <c r="P379" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q379" t="s">
         <v>96</v>
@@ -21758,11 +21808,11 @@
       <c r="J380">
         <v>77.94</v>
       </c>
-      <c r="K380">
+      <c r="K380" s="1">
         <v>77.61</v>
       </c>
       <c r="P380" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q380" t="s">
         <v>96</v>
@@ -21811,11 +21861,11 @@
       <c r="J381">
         <v>53.32</v>
       </c>
-      <c r="K381">
+      <c r="K381" s="1">
         <v>53.69</v>
       </c>
       <c r="P381" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q381" t="s">
         <v>96</v>
@@ -21864,11 +21914,11 @@
       <c r="J382">
         <v>135.47</v>
       </c>
-      <c r="K382">
+      <c r="K382" s="1">
         <v>136.99</v>
       </c>
       <c r="P382" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q382" t="s">
         <v>96</v>
@@ -21917,11 +21967,11 @@
       <c r="J383">
         <v>109.13</v>
       </c>
-      <c r="K383">
+      <c r="K383" s="1">
         <v>109.32</v>
       </c>
       <c r="P383" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q383" t="s">
         <v>96</v>
@@ -21970,11 +22020,11 @@
       <c r="J384">
         <v>66.2</v>
       </c>
-      <c r="K384">
+      <c r="K384" s="1">
         <v>67.16</v>
       </c>
       <c r="P384" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q384" t="s">
         <v>96</v>
@@ -22023,11 +22073,11 @@
       <c r="J385">
         <v>91.03</v>
       </c>
-      <c r="K385">
+      <c r="K385" s="1">
         <v>91.9</v>
       </c>
       <c r="P385" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q385" t="s">
         <v>96</v>
@@ -22076,11 +22126,11 @@
       <c r="J386">
         <v>106.14</v>
       </c>
-      <c r="K386">
+      <c r="K386" s="1">
         <v>106.99</v>
       </c>
       <c r="P386" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q386" t="s">
         <v>96</v>
@@ -22129,11 +22179,11 @@
       <c r="J387">
         <v>62.66</v>
       </c>
-      <c r="K387">
+      <c r="K387" s="1">
         <v>62.71</v>
       </c>
       <c r="P387" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q387" t="s">
         <v>96</v>
@@ -22182,14 +22232,14 @@
       <c r="J388">
         <v>77.819999999999993</v>
       </c>
-      <c r="K388">
+      <c r="K388" s="1">
         <v>76.83</v>
       </c>
       <c r="O388" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P388" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q388" t="s">
         <v>96</v>
@@ -22238,11 +22288,11 @@
       <c r="J389">
         <v>48.82</v>
       </c>
-      <c r="K389">
+      <c r="K389" s="1">
         <v>49.35</v>
       </c>
       <c r="P389" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q389" t="s">
         <v>96</v>
@@ -22291,11 +22341,11 @@
       <c r="J390">
         <v>78.2</v>
       </c>
-      <c r="K390">
+      <c r="K390" s="1">
         <v>78.78</v>
       </c>
       <c r="P390" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q390" t="s">
         <v>96</v>
@@ -22344,11 +22394,11 @@
       <c r="J391">
         <v>25.12</v>
       </c>
-      <c r="K391">
+      <c r="K391" s="1">
         <v>24.89</v>
       </c>
       <c r="P391" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q391" t="s">
         <v>96</v>
@@ -22397,11 +22447,11 @@
       <c r="J392">
         <v>74.569999999999993</v>
       </c>
-      <c r="K392">
+      <c r="K392" s="1">
         <v>75.47</v>
       </c>
       <c r="P392" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q392" t="s">
         <v>96</v>
@@ -22450,11 +22500,11 @@
       <c r="J393">
         <v>58.9</v>
       </c>
-      <c r="K393">
-        <v>5952</v>
+      <c r="K393" s="1">
+        <v>59.52</v>
       </c>
       <c r="P393" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q393" t="s">
         <v>96</v>
@@ -22503,11 +22553,11 @@
       <c r="J394">
         <v>65.11</v>
       </c>
-      <c r="K394">
+      <c r="K394" s="1">
         <v>65.66</v>
       </c>
       <c r="P394" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q394" t="s">
         <v>96</v>
@@ -22556,11 +22606,11 @@
       <c r="J395">
         <v>124.22</v>
       </c>
-      <c r="K395">
+      <c r="K395" s="1">
         <v>124.7</v>
       </c>
       <c r="P395" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q395" t="s">
         <v>96</v>
@@ -22609,11 +22659,11 @@
       <c r="J396">
         <v>69.31</v>
       </c>
-      <c r="K396">
+      <c r="K396" s="1">
         <v>70.25</v>
       </c>
       <c r="P396" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q396" t="s">
         <v>96</v>
@@ -22662,11 +22712,11 @@
       <c r="J397">
         <v>23.39</v>
       </c>
-      <c r="K397">
+      <c r="K397" s="1">
         <v>22.49</v>
       </c>
       <c r="P397" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q397" t="s">
         <v>96</v>
@@ -22715,11 +22765,11 @@
       <c r="J398">
         <v>99.49</v>
       </c>
-      <c r="K398">
+      <c r="K398" s="1">
         <v>101.69</v>
       </c>
       <c r="P398" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q398" t="s">
         <v>96</v>
@@ -22768,11 +22818,11 @@
       <c r="J399">
         <v>33.18</v>
       </c>
-      <c r="K399">
+      <c r="K399" s="1">
         <v>34.01</v>
       </c>
       <c r="P399" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q399" t="s">
         <v>96</v>
@@ -22821,11 +22871,11 @@
       <c r="J400">
         <v>121.61</v>
       </c>
-      <c r="K400">
+      <c r="K400" s="1">
         <v>121.2</v>
       </c>
       <c r="P400" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q400" t="s">
         <v>96</v>
@@ -22874,11 +22924,11 @@
       <c r="J401">
         <v>28.5</v>
       </c>
-      <c r="K401">
+      <c r="K401" s="1">
         <v>28.52</v>
       </c>
       <c r="P401" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q401" t="s">
         <v>96</v>
@@ -22927,11 +22977,11 @@
       <c r="J402">
         <v>48.44</v>
       </c>
-      <c r="K402">
+      <c r="K402" s="1">
         <v>48.96</v>
       </c>
       <c r="P402" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q402" t="s">
         <v>96</v>
@@ -22980,11 +23030,11 @@
       <c r="J403">
         <v>24.9</v>
       </c>
-      <c r="K403">
+      <c r="K403" s="1">
         <v>22.64</v>
       </c>
       <c r="P403" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q403" t="s">
         <v>96</v>
@@ -23033,11 +23083,11 @@
       <c r="J404">
         <v>145.6</v>
       </c>
-      <c r="K404">
+      <c r="K404" s="1">
         <v>147.1</v>
       </c>
       <c r="P404" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q404" t="s">
         <v>96</v>
@@ -23086,11 +23136,11 @@
       <c r="J405">
         <v>83.4</v>
       </c>
-      <c r="K405">
+      <c r="K405" s="1">
         <v>84.02</v>
       </c>
       <c r="P405" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q405" t="s">
         <v>96</v>
@@ -23139,11 +23189,11 @@
       <c r="J406">
         <v>76.900000000000006</v>
       </c>
-      <c r="K406">
+      <c r="K406" s="1">
         <v>77.459999999999994</v>
       </c>
       <c r="P406" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q406" t="s">
         <v>96</v>
@@ -23192,11 +23242,11 @@
       <c r="J407">
         <v>101.03</v>
       </c>
-      <c r="K407">
+      <c r="K407" s="1">
         <v>102.22</v>
       </c>
       <c r="P407" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q407" t="s">
         <v>96</v>
@@ -23245,11 +23295,11 @@
       <c r="J408">
         <v>48.01</v>
       </c>
-      <c r="K408">
+      <c r="K408" s="1">
         <v>48.91</v>
       </c>
       <c r="P408" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q408" t="s">
         <v>96</v>
@@ -23298,11 +23348,11 @@
       <c r="J409">
         <v>9.8699999999999992</v>
       </c>
-      <c r="K409">
+      <c r="K409" s="1">
         <v>8.8800000000000008</v>
       </c>
       <c r="P409" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q409" t="s">
         <v>96</v>
@@ -23351,17 +23401,17 @@
       <c r="J410" t="s">
         <v>39</v>
       </c>
-      <c r="K410" t="s">
+      <c r="K410" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M410" t="s">
         <v>79</v>
       </c>
       <c r="O410" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P410" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q410" t="s">
         <v>96</v>
@@ -23410,11 +23460,11 @@
       <c r="J411">
         <v>97.45</v>
       </c>
-      <c r="K411">
+      <c r="K411" s="1">
         <v>97.74</v>
       </c>
       <c r="P411" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q411" t="s">
         <v>96</v>
@@ -23463,11 +23513,11 @@
       <c r="J412">
         <v>111.69</v>
       </c>
-      <c r="K412">
+      <c r="K412" s="1">
         <v>112.53</v>
       </c>
       <c r="P412" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q412" t="s">
         <v>96</v>
@@ -23516,11 +23566,11 @@
       <c r="J413">
         <v>20.84</v>
       </c>
-      <c r="K413">
+      <c r="K413" s="1">
         <v>21.01</v>
       </c>
       <c r="P413" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q413" t="s">
         <v>96</v>
@@ -23569,11 +23619,11 @@
       <c r="J414">
         <v>92.35</v>
       </c>
-      <c r="K414">
+      <c r="K414" s="1">
         <v>93.37</v>
       </c>
       <c r="P414" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q414" t="s">
         <v>96</v>
@@ -23622,11 +23672,11 @@
       <c r="J415">
         <v>79.08</v>
       </c>
-      <c r="K415">
+      <c r="K415" s="1">
         <v>78.989999999999995</v>
       </c>
       <c r="P415" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q415" t="s">
         <v>96</v>
@@ -23675,11 +23725,11 @@
       <c r="J416">
         <v>89.62</v>
       </c>
-      <c r="K416">
+      <c r="K416" s="1">
         <v>89.35</v>
       </c>
       <c r="P416" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q416" t="s">
         <v>96</v>
@@ -23728,11 +23778,11 @@
       <c r="J417">
         <v>66.25</v>
       </c>
-      <c r="K417">
+      <c r="K417" s="1">
         <v>66.59</v>
       </c>
       <c r="P417" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q417" t="s">
         <v>96</v>
@@ -23781,11 +23831,11 @@
       <c r="J418">
         <v>30.94</v>
       </c>
-      <c r="K418">
+      <c r="K418" s="1">
         <v>30.91</v>
       </c>
       <c r="P418" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q418" t="s">
         <v>96</v>
@@ -23834,11 +23884,11 @@
       <c r="J419">
         <v>15.62</v>
       </c>
-      <c r="K419">
+      <c r="K419" s="1">
         <v>15.72</v>
       </c>
       <c r="P419" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q419" t="s">
         <v>96</v>
@@ -23887,11 +23937,11 @@
       <c r="J420">
         <v>67</v>
       </c>
-      <c r="K420">
+      <c r="K420" s="1">
         <v>67.260000000000005</v>
       </c>
       <c r="P420" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q420" t="s">
         <v>96</v>
@@ -23940,11 +23990,11 @@
       <c r="J421">
         <v>138.24</v>
       </c>
-      <c r="K421">
+      <c r="K421" s="1">
         <v>139</v>
       </c>
       <c r="P421" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q421" t="s">
         <v>96</v>
@@ -23993,6 +24043,21 @@
       <c r="J422">
         <v>28.09</v>
       </c>
+      <c r="K422" s="1">
+        <v>28.81</v>
+      </c>
+      <c r="M422" t="s">
+        <v>87</v>
+      </c>
+      <c r="O422" t="s">
+        <v>123</v>
+      </c>
+      <c r="P422" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>96</v>
+      </c>
       <c r="R422">
         <v>2023.01</v>
       </c>
@@ -24037,6 +24102,15 @@
       <c r="J423">
         <v>135</v>
       </c>
+      <c r="K423" s="1">
+        <v>136.13999999999999</v>
+      </c>
+      <c r="P423" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>96</v>
+      </c>
       <c r="R423">
         <v>2023.01</v>
       </c>
@@ -24081,6 +24155,18 @@
       <c r="J424">
         <v>14.61</v>
       </c>
+      <c r="K424" s="1">
+        <v>13.57</v>
+      </c>
+      <c r="O424" t="s">
+        <v>124</v>
+      </c>
+      <c r="P424" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>96</v>
+      </c>
       <c r="R424">
         <v>2023.01</v>
       </c>
@@ -24125,6 +24211,15 @@
       <c r="J425">
         <v>2.96</v>
       </c>
+      <c r="K425" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="P425" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>96</v>
+      </c>
       <c r="R425">
         <v>2023.01</v>
       </c>
@@ -24169,6 +24264,15 @@
       <c r="J426">
         <v>83.68</v>
       </c>
+      <c r="K426" s="1">
+        <v>83.67</v>
+      </c>
+      <c r="P426" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>96</v>
+      </c>
       <c r="R426">
         <v>2023.01</v>
       </c>
@@ -24213,6 +24317,15 @@
       <c r="J427">
         <v>39.21</v>
       </c>
+      <c r="K427" s="1">
+        <v>39.19</v>
+      </c>
+      <c r="P427" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>96</v>
+      </c>
       <c r="R427">
         <v>2023.01</v>
       </c>
@@ -24257,6 +24370,15 @@
       <c r="J428">
         <v>25.86</v>
       </c>
+      <c r="K428" s="1">
+        <v>24.62</v>
+      </c>
+      <c r="P428" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>96</v>
+      </c>
       <c r="R428">
         <v>2023.01</v>
       </c>
@@ -24301,6 +24423,15 @@
       <c r="J429">
         <v>88.74</v>
       </c>
+      <c r="K429" s="1">
+        <v>89.55</v>
+      </c>
+      <c r="P429" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>96</v>
+      </c>
       <c r="R429">
         <v>2023.01</v>
       </c>
@@ -24345,6 +24476,15 @@
       <c r="J430">
         <v>90.15</v>
       </c>
+      <c r="K430" s="1">
+        <v>90.76</v>
+      </c>
+      <c r="P430" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>96</v>
+      </c>
       <c r="R430">
         <v>2023.01</v>
       </c>
@@ -24389,6 +24529,15 @@
       <c r="J431">
         <v>78.34</v>
       </c>
+      <c r="K431" s="1">
+        <v>77.81</v>
+      </c>
+      <c r="P431" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>96</v>
+      </c>
       <c r="R431">
         <v>2023.01</v>
       </c>
@@ -24433,6 +24582,15 @@
       <c r="J432">
         <v>15.52</v>
       </c>
+      <c r="K432" s="1">
+        <v>16.03</v>
+      </c>
+      <c r="P432" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>96</v>
+      </c>
       <c r="R432">
         <v>2023.01</v>
       </c>
@@ -24477,6 +24635,15 @@
       <c r="J433">
         <v>25.48</v>
       </c>
+      <c r="K433" s="1">
+        <v>24.77</v>
+      </c>
+      <c r="P433" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>96</v>
+      </c>
       <c r="R433">
         <v>2023.01</v>
       </c>
@@ -24521,6 +24688,15 @@
       <c r="J434">
         <v>79.040000000000006</v>
       </c>
+      <c r="K434" s="1">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="P434" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>96</v>
+      </c>
       <c r="R434">
         <v>2023.01</v>
       </c>
@@ -24565,6 +24741,15 @@
       <c r="J435">
         <v>19.04</v>
       </c>
+      <c r="K435" s="1">
+        <v>18.07</v>
+      </c>
+      <c r="P435" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>96</v>
+      </c>
       <c r="R435">
         <v>2023.01</v>
       </c>
@@ -24609,6 +24794,15 @@
       <c r="J436">
         <v>61.99</v>
       </c>
+      <c r="K436" s="1">
+        <v>62.58</v>
+      </c>
+      <c r="P436" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>96</v>
+      </c>
       <c r="R436">
         <v>2023.01</v>
       </c>
@@ -24653,6 +24847,15 @@
       <c r="J437">
         <v>35.950000000000003</v>
       </c>
+      <c r="K437" s="1">
+        <v>35.32</v>
+      </c>
+      <c r="P437" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>96</v>
+      </c>
       <c r="R437">
         <v>2023.01</v>
       </c>
@@ -24697,6 +24900,15 @@
       <c r="J438">
         <v>114.91</v>
       </c>
+      <c r="K438" s="1">
+        <v>112.39</v>
+      </c>
+      <c r="P438" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>96</v>
+      </c>
       <c r="R438">
         <v>2023.01</v>
       </c>
@@ -24741,6 +24953,15 @@
       <c r="J439">
         <v>39.549999999999997</v>
       </c>
+      <c r="K439" s="1">
+        <v>39.32</v>
+      </c>
+      <c r="P439" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>96</v>
+      </c>
       <c r="R439">
         <v>2023.01</v>
       </c>
@@ -24785,6 +25006,15 @@
       <c r="J440">
         <v>69.989999999999995</v>
       </c>
+      <c r="K440" s="1">
+        <v>69.36</v>
+      </c>
+      <c r="P440" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>96</v>
+      </c>
       <c r="R440">
         <v>2023.01</v>
       </c>
@@ -24829,6 +25059,15 @@
       <c r="J441">
         <v>59.7</v>
       </c>
+      <c r="K441" s="1">
+        <v>60.24</v>
+      </c>
+      <c r="P441" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>96</v>
+      </c>
       <c r="R441">
         <v>2023.01</v>
       </c>
@@ -24873,6 +25112,15 @@
       <c r="J442">
         <v>44.03</v>
       </c>
+      <c r="K442" s="1">
+        <v>44.24</v>
+      </c>
+      <c r="P442" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q442" t="s">
+        <v>96</v>
+      </c>
       <c r="R442">
         <v>2023.01</v>
       </c>
@@ -24917,6 +25165,15 @@
       <c r="J443">
         <v>104.3</v>
       </c>
+      <c r="K443" s="1">
+        <v>104.65</v>
+      </c>
+      <c r="P443" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>96</v>
+      </c>
       <c r="R443">
         <v>2023.01</v>
       </c>
@@ -24961,6 +25218,21 @@
       <c r="J444">
         <v>109.25</v>
       </c>
+      <c r="K444" s="1">
+        <v>110.14</v>
+      </c>
+      <c r="M444" t="s">
+        <v>87</v>
+      </c>
+      <c r="O444" t="s">
+        <v>125</v>
+      </c>
+      <c r="P444" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>96</v>
+      </c>
       <c r="R444">
         <v>2023.01</v>
       </c>
@@ -25005,6 +25277,15 @@
       <c r="J445">
         <v>62.56</v>
       </c>
+      <c r="K445" s="1">
+        <v>63.25</v>
+      </c>
+      <c r="P445" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q445" t="s">
+        <v>96</v>
+      </c>
       <c r="R445">
         <v>2023.01</v>
       </c>
@@ -25049,6 +25330,21 @@
       <c r="J446">
         <v>59.43</v>
       </c>
+      <c r="K446" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="M446" t="s">
+        <v>85</v>
+      </c>
+      <c r="O446" t="s">
+        <v>126</v>
+      </c>
+      <c r="P446" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>96</v>
+      </c>
       <c r="R446">
         <v>2023.01</v>
       </c>
@@ -25093,6 +25389,15 @@
       <c r="J447">
         <v>24.81</v>
       </c>
+      <c r="K447" s="1">
+        <v>25.19</v>
+      </c>
+      <c r="P447" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>96</v>
+      </c>
       <c r="R447">
         <v>2023.01</v>
       </c>
@@ -25137,6 +25442,15 @@
       <c r="J448">
         <v>25.48</v>
       </c>
+      <c r="K448" s="1">
+        <v>25.75</v>
+      </c>
+      <c r="P448" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>96</v>
+      </c>
       <c r="R448">
         <v>2023.01</v>
       </c>
@@ -25181,6 +25495,21 @@
       <c r="J449">
         <v>54.81</v>
       </c>
+      <c r="K449" s="1">
+        <v>54.31</v>
+      </c>
+      <c r="M449" t="s">
+        <v>85</v>
+      </c>
+      <c r="O449" t="s">
+        <v>126</v>
+      </c>
+      <c r="P449" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>96</v>
+      </c>
       <c r="R449">
         <v>2023.01</v>
       </c>
@@ -25225,6 +25554,15 @@
       <c r="J450">
         <v>124.72</v>
       </c>
+      <c r="K450" s="1">
+        <v>125.14</v>
+      </c>
+      <c r="P450" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q450" t="s">
+        <v>96</v>
+      </c>
       <c r="R450">
         <v>2023.01</v>
       </c>
@@ -25269,6 +25607,18 @@
       <c r="J451">
         <v>22.6</v>
       </c>
+      <c r="K451" s="1">
+        <v>2</v>
+      </c>
+      <c r="O451" t="s">
+        <v>136</v>
+      </c>
+      <c r="P451" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q451" t="s">
+        <v>96</v>
+      </c>
       <c r="R451">
         <v>2023.01</v>
       </c>
@@ -25313,6 +25663,15 @@
       <c r="J452">
         <v>42.89</v>
       </c>
+      <c r="K452" s="1">
+        <v>21.27</v>
+      </c>
+      <c r="P452" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>96</v>
+      </c>
       <c r="R452">
         <v>2023.01</v>
       </c>
@@ -25357,6 +25716,15 @@
       <c r="J453">
         <v>26.38</v>
       </c>
+      <c r="K453" s="1">
+        <v>26.19</v>
+      </c>
+      <c r="P453" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>96</v>
+      </c>
       <c r="R453">
         <v>2023.01</v>
       </c>
@@ -25401,6 +25769,15 @@
       <c r="J454">
         <v>13.18</v>
       </c>
+      <c r="K454" s="1">
+        <v>13.37</v>
+      </c>
+      <c r="P454" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>96</v>
+      </c>
       <c r="R454">
         <v>2023.01</v>
       </c>
@@ -25445,6 +25822,15 @@
       <c r="J455">
         <v>75.52</v>
       </c>
+      <c r="K455" s="1">
+        <v>75.59</v>
+      </c>
+      <c r="P455" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>96</v>
+      </c>
       <c r="R455">
         <v>2023.01</v>
       </c>
@@ -25489,6 +25875,15 @@
       <c r="J456">
         <v>16.399999999999999</v>
       </c>
+      <c r="K456" s="1">
+        <v>15.06</v>
+      </c>
+      <c r="P456" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>96</v>
+      </c>
       <c r="R456">
         <v>2023.01</v>
       </c>
@@ -25533,6 +25928,15 @@
       <c r="J457">
         <v>67.7</v>
       </c>
+      <c r="K457" s="1">
+        <v>67.75</v>
+      </c>
+      <c r="P457" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>96</v>
+      </c>
       <c r="R457">
         <v>2023.01</v>
       </c>
@@ -25577,6 +25981,15 @@
       <c r="J458">
         <v>85.76</v>
       </c>
+      <c r="K458" s="1">
+        <v>86.77</v>
+      </c>
+      <c r="P458" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>96</v>
+      </c>
       <c r="R458">
         <v>2023.01</v>
       </c>
@@ -25621,6 +26034,15 @@
       <c r="J459">
         <v>68.72</v>
       </c>
+      <c r="K459" s="1">
+        <v>66.69</v>
+      </c>
+      <c r="P459" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>96</v>
+      </c>
       <c r="R459">
         <v>2023.01</v>
       </c>
@@ -25665,6 +26087,15 @@
       <c r="J460">
         <v>44.34</v>
       </c>
+      <c r="K460" s="1">
+        <v>43.82</v>
+      </c>
+      <c r="P460" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>96</v>
+      </c>
       <c r="R460">
         <v>2023.01</v>
       </c>
@@ -25709,6 +26140,15 @@
       <c r="J461">
         <v>70.61</v>
       </c>
+      <c r="K461" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="P461" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>96</v>
+      </c>
       <c r="R461">
         <v>2023.01</v>
       </c>
@@ -25753,6 +26193,21 @@
       <c r="J462">
         <v>21.93</v>
       </c>
+      <c r="K462" s="1">
+        <v>45</v>
+      </c>
+      <c r="M462" t="s">
+        <v>127</v>
+      </c>
+      <c r="O462" t="s">
+        <v>128</v>
+      </c>
+      <c r="P462" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q462" t="s">
+        <v>96</v>
+      </c>
       <c r="R462">
         <v>2023.01</v>
       </c>
@@ -25797,6 +26252,15 @@
       <c r="J463">
         <v>107.7</v>
       </c>
+      <c r="K463" s="1">
+        <v>110.2</v>
+      </c>
+      <c r="P463" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>96</v>
+      </c>
       <c r="R463">
         <v>2023.01</v>
       </c>
@@ -25841,6 +26305,15 @@
       <c r="J464">
         <v>71.290000000000006</v>
       </c>
+      <c r="K464" s="1">
+        <v>72.39</v>
+      </c>
+      <c r="P464" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>96</v>
+      </c>
       <c r="R464">
         <v>2023.01</v>
       </c>
@@ -25885,6 +26358,15 @@
       <c r="J465">
         <v>63.34</v>
       </c>
+      <c r="K465" s="1">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="P465" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>96</v>
+      </c>
       <c r="R465">
         <v>2023.01</v>
       </c>
@@ -25929,6 +26411,15 @@
       <c r="J466">
         <v>16.559999999999999</v>
       </c>
+      <c r="K466" s="1">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="P466" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>96</v>
+      </c>
       <c r="R466">
         <v>2023.01</v>
       </c>
@@ -25973,6 +26464,15 @@
       <c r="J467">
         <v>85.96</v>
       </c>
+      <c r="K467" s="1">
+        <v>86.37</v>
+      </c>
+      <c r="P467" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>96</v>
+      </c>
       <c r="R467">
         <v>2023.01</v>
       </c>
@@ -26017,6 +26517,21 @@
       <c r="J468">
         <v>4.21</v>
       </c>
+      <c r="K468" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="M468" t="s">
+        <v>57</v>
+      </c>
+      <c r="O468" t="s">
+        <v>130</v>
+      </c>
+      <c r="P468" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>96</v>
+      </c>
       <c r="R468">
         <v>2023.01</v>
       </c>
@@ -26061,6 +26576,15 @@
       <c r="J469">
         <v>48.55</v>
       </c>
+      <c r="K469" s="1">
+        <v>49.42</v>
+      </c>
+      <c r="P469" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q469" t="s">
+        <v>96</v>
+      </c>
       <c r="R469">
         <v>2023.01</v>
       </c>
@@ -26105,6 +26629,15 @@
       <c r="J470">
         <v>6.13</v>
       </c>
+      <c r="K470" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="P470" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q470" t="s">
+        <v>96</v>
+      </c>
       <c r="R470">
         <v>2023.01</v>
       </c>
@@ -26149,6 +26682,15 @@
       <c r="J471">
         <v>20.37</v>
       </c>
+      <c r="K471" s="1">
+        <v>18.91</v>
+      </c>
+      <c r="P471" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>96</v>
+      </c>
       <c r="R471">
         <v>2023.01</v>
       </c>
@@ -26193,6 +26735,15 @@
       <c r="J472">
         <v>31.26</v>
       </c>
+      <c r="K472" s="1">
+        <v>30.75</v>
+      </c>
+      <c r="P472" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>96</v>
+      </c>
       <c r="R472">
         <v>2023.01</v>
       </c>
@@ -26237,6 +26788,15 @@
       <c r="J473">
         <v>33.07</v>
       </c>
+      <c r="K473" s="1">
+        <v>30.81</v>
+      </c>
+      <c r="P473" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q473" t="s">
+        <v>96</v>
+      </c>
       <c r="R473">
         <v>2023.01</v>
       </c>
@@ -26281,6 +26841,15 @@
       <c r="J474">
         <v>99.64</v>
       </c>
+      <c r="K474" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="P474" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q474" t="s">
+        <v>96</v>
+      </c>
       <c r="R474">
         <v>2023.01</v>
       </c>
@@ -26325,6 +26894,15 @@
       <c r="J475">
         <v>76.849999999999994</v>
       </c>
+      <c r="K475" s="1">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="P475" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q475" t="s">
+        <v>96</v>
+      </c>
       <c r="R475">
         <v>2023.01</v>
       </c>
@@ -26369,6 +26947,15 @@
       <c r="J476">
         <v>126.67</v>
       </c>
+      <c r="K476" s="1">
+        <v>126.83</v>
+      </c>
+      <c r="P476" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q476" t="s">
+        <v>96</v>
+      </c>
       <c r="R476">
         <v>2023.01</v>
       </c>
@@ -26413,6 +27000,15 @@
       <c r="J477">
         <v>60.67</v>
       </c>
+      <c r="K477" s="1">
+        <v>60.57</v>
+      </c>
+      <c r="P477" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q477" t="s">
+        <v>96</v>
+      </c>
       <c r="R477">
         <v>2023.01</v>
       </c>
@@ -26457,6 +27053,15 @@
       <c r="J478">
         <v>66.48</v>
       </c>
+      <c r="K478" s="1">
+        <v>67.62</v>
+      </c>
+      <c r="P478" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q478" t="s">
+        <v>96</v>
+      </c>
       <c r="R478">
         <v>2023.01</v>
       </c>
@@ -26501,6 +27106,21 @@
       <c r="J479">
         <v>14.42</v>
       </c>
+      <c r="K479" s="1">
+        <v>14.58</v>
+      </c>
+      <c r="M479" t="s">
+        <v>87</v>
+      </c>
+      <c r="O479" t="s">
+        <v>131</v>
+      </c>
+      <c r="P479" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q479" t="s">
+        <v>96</v>
+      </c>
       <c r="R479">
         <v>2023.01</v>
       </c>
@@ -26545,6 +27165,15 @@
       <c r="J480">
         <v>14.7</v>
       </c>
+      <c r="K480" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="P480" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>96</v>
+      </c>
       <c r="R480">
         <v>2023.01</v>
       </c>
@@ -26589,6 +27218,15 @@
       <c r="J481">
         <v>39.04</v>
       </c>
+      <c r="K481" s="1">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="P481" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q481" t="s">
+        <v>96</v>
+      </c>
       <c r="R481">
         <v>2023.01</v>
       </c>
@@ -26633,6 +27271,21 @@
       <c r="J482">
         <v>63.15</v>
       </c>
+      <c r="K482" s="1">
+        <v>63.42</v>
+      </c>
+      <c r="M482" t="s">
+        <v>87</v>
+      </c>
+      <c r="O482" t="s">
+        <v>132</v>
+      </c>
+      <c r="P482" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q482" t="s">
+        <v>96</v>
+      </c>
       <c r="R482">
         <v>2023.01</v>
       </c>
@@ -26677,6 +27330,15 @@
       <c r="J483">
         <v>103.96</v>
       </c>
+      <c r="K483" s="1">
+        <v>104.25</v>
+      </c>
+      <c r="P483" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q483" t="s">
+        <v>96</v>
+      </c>
       <c r="R483">
         <v>2023.01</v>
       </c>
@@ -26721,6 +27383,15 @@
       <c r="J484">
         <v>26.66</v>
       </c>
+      <c r="K484" s="1">
+        <v>27.24</v>
+      </c>
+      <c r="P484" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q484" t="s">
+        <v>96</v>
+      </c>
       <c r="R484">
         <v>2023.01</v>
       </c>
@@ -26765,6 +27436,21 @@
       <c r="J485">
         <v>135.19</v>
       </c>
+      <c r="K485" s="1">
+        <v>135.26</v>
+      </c>
+      <c r="M485" t="s">
+        <v>87</v>
+      </c>
+      <c r="O485" t="s">
+        <v>131</v>
+      </c>
+      <c r="P485" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q485" t="s">
+        <v>96</v>
+      </c>
       <c r="R485">
         <v>2023.01</v>
       </c>
@@ -26809,6 +27495,15 @@
       <c r="J486">
         <v>75.040000000000006</v>
       </c>
+      <c r="K486" s="1">
+        <v>75.52</v>
+      </c>
+      <c r="P486" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q486" t="s">
+        <v>96</v>
+      </c>
       <c r="R486">
         <v>2023.01</v>
       </c>
@@ -26853,6 +27548,15 @@
       <c r="J487">
         <v>94.23</v>
       </c>
+      <c r="K487" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="P487" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>96</v>
+      </c>
       <c r="R487">
         <v>2023.01</v>
       </c>
@@ -26897,6 +27601,15 @@
       <c r="J488">
         <v>100.05</v>
       </c>
+      <c r="K488" s="1">
+        <v>100.01</v>
+      </c>
+      <c r="P488" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q488" t="s">
+        <v>96</v>
+      </c>
       <c r="R488">
         <v>2023.01</v>
       </c>
@@ -26941,6 +27654,15 @@
       <c r="J489">
         <v>41.78</v>
       </c>
+      <c r="K489" s="1">
+        <v>39.78</v>
+      </c>
+      <c r="P489" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q489" t="s">
+        <v>96</v>
+      </c>
       <c r="R489">
         <v>2023.01</v>
       </c>
@@ -26985,6 +27707,15 @@
       <c r="J490">
         <v>54.16</v>
       </c>
+      <c r="K490" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="P490" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q490" t="s">
+        <v>96</v>
+      </c>
       <c r="R490">
         <v>2023.01</v>
       </c>
@@ -27029,6 +27760,15 @@
       <c r="J491">
         <v>136.86000000000001</v>
       </c>
+      <c r="K491" s="1">
+        <v>137.78</v>
+      </c>
+      <c r="P491" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q491" t="s">
+        <v>96</v>
+      </c>
       <c r="R491">
         <v>2023.01</v>
       </c>
@@ -27073,6 +27813,15 @@
       <c r="J492">
         <v>17.59</v>
       </c>
+      <c r="K492" s="1">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="P492" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q492" t="s">
+        <v>96</v>
+      </c>
       <c r="R492">
         <v>2023.01</v>
       </c>
@@ -27117,6 +27866,15 @@
       <c r="J493">
         <v>62.9</v>
       </c>
+      <c r="K493" s="1">
+        <v>62.75</v>
+      </c>
+      <c r="P493" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q493" t="s">
+        <v>96</v>
+      </c>
       <c r="R493">
         <v>2023.01</v>
       </c>
@@ -27161,6 +27919,18 @@
       <c r="J494">
         <v>15.05</v>
       </c>
+      <c r="K494" s="1">
+        <v>14.94</v>
+      </c>
+      <c r="O494" t="s">
+        <v>133</v>
+      </c>
+      <c r="P494" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q494" t="s">
+        <v>96</v>
+      </c>
       <c r="R494">
         <v>2023.01</v>
       </c>
@@ -27205,6 +27975,15 @@
       <c r="J495">
         <v>108.43</v>
       </c>
+      <c r="K495" s="1">
+        <v>108.55</v>
+      </c>
+      <c r="P495" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q495" t="s">
+        <v>96</v>
+      </c>
       <c r="R495">
         <v>2023.01</v>
       </c>
@@ -27249,6 +28028,18 @@
       <c r="J496">
         <v>108.52</v>
       </c>
+      <c r="K496" s="1">
+        <v>124.13</v>
+      </c>
+      <c r="O496" t="s">
+        <v>134</v>
+      </c>
+      <c r="P496" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q496" t="s">
+        <v>96</v>
+      </c>
       <c r="R496">
         <v>2023.01</v>
       </c>
@@ -27293,6 +28084,21 @@
       <c r="J497">
         <v>20.03</v>
       </c>
+      <c r="K497" s="1">
+        <v>20.74</v>
+      </c>
+      <c r="M497" t="s">
+        <v>57</v>
+      </c>
+      <c r="O497" t="s">
+        <v>130</v>
+      </c>
+      <c r="P497" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q497" t="s">
+        <v>96</v>
+      </c>
       <c r="R497">
         <v>2023.01</v>
       </c>
@@ -27337,6 +28143,15 @@
       <c r="J498">
         <v>25.91</v>
       </c>
+      <c r="K498" s="1">
+        <v>25.67</v>
+      </c>
+      <c r="P498" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q498" t="s">
+        <v>96</v>
+      </c>
       <c r="R498">
         <v>2023.01</v>
       </c>
@@ -27381,6 +28196,15 @@
       <c r="J499">
         <v>50.24</v>
       </c>
+      <c r="K499" s="1">
+        <v>50.75</v>
+      </c>
+      <c r="P499" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q499" t="s">
+        <v>96</v>
+      </c>
       <c r="R499">
         <v>2023.01</v>
       </c>
@@ -27425,6 +28249,15 @@
       <c r="J500">
         <v>28.5</v>
       </c>
+      <c r="K500" s="1">
+        <v>29.26</v>
+      </c>
+      <c r="P500" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q500" t="s">
+        <v>96</v>
+      </c>
       <c r="R500">
         <v>2023.01</v>
       </c>
@@ -27469,6 +28302,15 @@
       <c r="J501">
         <v>57.78</v>
       </c>
+      <c r="K501" s="1">
+        <v>58.76</v>
+      </c>
+      <c r="P501" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q501" t="s">
+        <v>96</v>
+      </c>
       <c r="R501">
         <v>2023.01</v>
       </c>
@@ -27513,6 +28355,18 @@
       <c r="J502" t="s">
         <v>39</v>
       </c>
+      <c r="K502" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O502" t="s">
+        <v>135</v>
+      </c>
+      <c r="P502" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q502" t="s">
+        <v>96</v>
+      </c>
       <c r="R502">
         <v>2023.01</v>
       </c>
@@ -27557,6 +28411,15 @@
       <c r="J503">
         <v>31.08</v>
       </c>
+      <c r="K503" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="P503" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q503" t="s">
+        <v>96</v>
+      </c>
       <c r="R503">
         <v>2023.01</v>
       </c>
@@ -27601,6 +28464,15 @@
       <c r="J504">
         <v>88.38</v>
       </c>
+      <c r="K504" s="1">
+        <v>87.89</v>
+      </c>
+      <c r="P504" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q504" t="s">
+        <v>96</v>
+      </c>
       <c r="R504">
         <v>2023.01</v>
       </c>
@@ -27616,6 +28488,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/raw_data/2023/data_entry_biannual_spr2023.xlsx
+++ b/resources/raw_data/2023/data_entry_biannual_spr2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessh\Documents\GitHub\Dendrobands\resources\raw_data\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sinet-my.sharepoint.com/personal/shuej_si_edu/Documents/Documents/GitHub/Dendrobands/resources/raw_data/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348030F7-6257-4123-B602-331382DF427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{348030F7-6257-4123-B602-331382DF427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FED07BE-0C55-4BEF-A4EB-AEAB109410CA}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_entry_biannual_spr2023_BLA" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_entry_biannual_spr2023_BLA!$A$1:$U$504</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="137">
   <si>
     <t>tag</t>
   </si>
@@ -362,9 +375,6 @@
     <t>RE, NN</t>
   </si>
   <si>
-    <t>Missing spring, Tag being eaten by tree</t>
-  </si>
-  <si>
     <t>Ming Liu, Bill McShea</t>
   </si>
   <si>
@@ -389,9 +399,6 @@
     <t>no band</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>RE; NN</t>
   </si>
   <si>
@@ -405,12 +412,6 @@
   </si>
   <si>
     <t>No tag</t>
-  </si>
-  <si>
-    <t>BA; RE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempted to adjust band. Needs replacing . Bad measurement </t>
   </si>
   <si>
     <t>Jen Jordan</t>
@@ -434,9 +435,6 @@
     <t>Not found</t>
   </si>
   <si>
-    <t>possible typo</t>
-  </si>
-  <si>
     <t>RT; NN</t>
   </si>
   <si>
@@ -444,6 +442,12 @@
   </si>
   <si>
     <t>Brigit Rooney, Kristina Anderson-Teixeira</t>
+  </si>
+  <si>
+    <t>36.85 for new band</t>
+  </si>
+  <si>
+    <t>spring replaced, Tag being eaten by tree</t>
   </si>
 </sst>
 </file>
@@ -1288,16 +1292,16 @@
   <dimension ref="A1:U504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q142" sqref="Q142"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A496" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="8.83984375" style="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>130348</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>140609</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>150781</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>160713</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160742</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160910</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>160814</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160985</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>160862</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>170175</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>170992</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>170994</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>171127</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>171245</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>171254</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>171257</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>171262</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>171348</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>171454</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>171456</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>171462</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>180235</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>180648</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>180728</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>180654</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>180691</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>180903</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>180904</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>180984</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>180991</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>190065</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>190067</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>190071</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>190115</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>22</v>
       </c>
       <c r="J35">
-        <v>161.68</v>
+        <v>14.85</v>
       </c>
       <c r="K35" s="1">
         <v>15.26</v>
@@ -3197,7 +3201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>190413</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>190426</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>190429</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>190655</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>190658</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>190670</v>
       </c>
@@ -3502,6 +3506,12 @@
       <c r="K41" s="1">
         <v>88.69</v>
       </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>135</v>
+      </c>
       <c r="P41" t="s">
         <v>106</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>190694</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>190704</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>190568</v>
       </c>
@@ -3686,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>190793</v>
       </c>
@@ -3742,7 +3752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>190794</v>
       </c>
@@ -3798,7 +3808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>190798</v>
       </c>
@@ -3851,7 +3861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>200142</v>
       </c>
@@ -3904,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200151</v>
       </c>
@@ -3957,7 +3967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200547</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200551</v>
       </c>
@@ -4066,7 +4076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200577</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200586</v>
       </c>
@@ -4172,7 +4182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200676</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>200812</v>
       </c>
@@ -4281,7 +4291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>200818</v>
       </c>
@@ -4310,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="J56">
-        <v>53.44</v>
+        <v>18.75</v>
       </c>
       <c r="K56" s="1">
         <v>17.05</v>
@@ -4334,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200822</v>
       </c>
@@ -4362,11 +4372,11 @@
       <c r="I57" t="s">
         <v>22</v>
       </c>
-      <c r="J57">
-        <v>144.9</v>
+      <c r="J57" t="s">
+        <v>39</v>
       </c>
       <c r="K57" s="1">
-        <v>1.75</v>
+        <v>9.34</v>
       </c>
       <c r="P57" t="s">
         <v>106</v>
@@ -4387,7 +4397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201171</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201180</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201207</v>
       </c>
@@ -4524,11 +4534,11 @@
       <c r="I60" t="s">
         <v>22</v>
       </c>
-      <c r="J60">
-        <v>98.23</v>
+      <c r="J60" t="s">
+        <v>39</v>
       </c>
       <c r="K60" s="1">
-        <v>2</v>
+        <v>9.98</v>
       </c>
       <c r="M60" t="s">
         <v>85</v>
@@ -4552,7 +4562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201261</v>
       </c>
@@ -4608,7 +4618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201264</v>
       </c>
@@ -4661,7 +4671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201274</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201278</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201279</v>
       </c>
@@ -4799,7 +4809,7 @@
         <v>22</v>
       </c>
       <c r="J65">
-        <v>142.6</v>
+        <v>15.44</v>
       </c>
       <c r="K65" s="1">
         <v>13.86</v>
@@ -4826,7 +4836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201331</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>40465</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>107</v>
       </c>
       <c r="P67" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q67" t="s">
         <v>96</v>
@@ -4938,7 +4948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>50288</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>107</v>
       </c>
       <c r="P68" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q68" t="s">
         <v>96</v>
@@ -4994,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>50364</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>21.69</v>
       </c>
       <c r="P69" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q69" t="s">
         <v>96</v>
@@ -5047,7 +5057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>60266</v>
       </c>
@@ -5082,7 +5092,7 @@
         <v>20.22</v>
       </c>
       <c r="P70" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q70" t="s">
         <v>96</v>
@@ -5100,7 +5110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>60161</v>
       </c>
@@ -5135,7 +5145,7 @@
         <v>109.15</v>
       </c>
       <c r="P71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q71" t="s">
         <v>96</v>
@@ -5153,7 +5163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70096</v>
       </c>
@@ -5188,7 +5198,7 @@
         <v>62.05</v>
       </c>
       <c r="P72" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q72" t="s">
         <v>96</v>
@@ -5206,7 +5216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70278</v>
       </c>
@@ -5241,7 +5251,7 @@
         <v>71.64</v>
       </c>
       <c r="P73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q73" t="s">
         <v>96</v>
@@ -5259,7 +5269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70126</v>
       </c>
@@ -5297,7 +5307,7 @@
         <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q74" t="s">
         <v>96</v>
@@ -5315,7 +5325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>70292</v>
       </c>
@@ -5350,7 +5360,7 @@
         <v>79.98</v>
       </c>
       <c r="P75" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q75" t="s">
         <v>96</v>
@@ -5368,7 +5378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70146</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>20.9</v>
       </c>
       <c r="P76" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q76" t="s">
         <v>96</v>
@@ -5421,7 +5431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70352</v>
       </c>
@@ -5456,7 +5466,7 @@
         <v>117.87</v>
       </c>
       <c r="P77" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q77" t="s">
         <v>96</v>
@@ -5474,7 +5484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>70358</v>
       </c>
@@ -5509,7 +5519,7 @@
         <v>25.76</v>
       </c>
       <c r="P78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q78" t="s">
         <v>96</v>
@@ -5527,7 +5537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70433</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>34.03</v>
       </c>
       <c r="P79" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q79" t="s">
         <v>96</v>
@@ -5580,7 +5590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>70519</v>
       </c>
@@ -5615,7 +5625,7 @@
         <v>98.66</v>
       </c>
       <c r="P80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q80" t="s">
         <v>96</v>
@@ -5633,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>70536</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>35.31</v>
       </c>
       <c r="P81" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q81" t="s">
         <v>96</v>
@@ -5686,7 +5696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>70579</v>
       </c>
@@ -5721,7 +5731,7 @@
         <v>44.21</v>
       </c>
       <c r="P82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q82" t="s">
         <v>96</v>
@@ -5739,7 +5749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80100</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>70.260000000000005</v>
       </c>
       <c r="P83" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q83" t="s">
         <v>96</v>
@@ -5792,7 +5802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80180</v>
       </c>
@@ -5827,7 +5837,7 @@
         <v>48.7</v>
       </c>
       <c r="P84" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q84" t="s">
         <v>96</v>
@@ -5845,7 +5855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>80401</v>
       </c>
@@ -5880,7 +5890,7 @@
         <v>44.99</v>
       </c>
       <c r="P85" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q85" t="s">
         <v>96</v>
@@ -5898,7 +5908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>80615</v>
       </c>
@@ -5933,7 +5943,7 @@
         <v>71.14</v>
       </c>
       <c r="P86" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q86" t="s">
         <v>96</v>
@@ -5951,7 +5961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>80628</v>
       </c>
@@ -5986,7 +5996,7 @@
         <v>54.71</v>
       </c>
       <c r="P87" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q87" t="s">
         <v>96</v>
@@ -6004,7 +6014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>80631</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>34.08</v>
       </c>
       <c r="P88" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q88" t="s">
         <v>96</v>
@@ -6057,7 +6067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>80554</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q89" t="s">
         <v>96</v>
@@ -6113,7 +6123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>80559</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>6.9</v>
       </c>
       <c r="P90" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q90" t="s">
         <v>96</v>
@@ -6166,7 +6176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90236</v>
       </c>
@@ -6201,7 +6211,7 @@
         <v>7.24</v>
       </c>
       <c r="P91" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q91" t="s">
         <v>96</v>
@@ -6219,7 +6229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90162</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>117.35</v>
       </c>
       <c r="P92" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q92" t="s">
         <v>96</v>
@@ -6272,7 +6282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90311</v>
       </c>
@@ -6307,7 +6317,7 @@
         <v>21.98</v>
       </c>
       <c r="P93" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q93" t="s">
         <v>96</v>
@@ -6325,7 +6335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90354</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>27.51</v>
       </c>
       <c r="P94" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q94" t="s">
         <v>96</v>
@@ -6378,7 +6388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91451</v>
       </c>
@@ -6413,10 +6423,10 @@
         <v>53.56</v>
       </c>
       <c r="M95" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P95" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q95" t="s">
         <v>96</v>
@@ -6434,7 +6444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>91474</v>
       </c>
@@ -6472,7 +6482,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q96" t="s">
         <v>96</v>
@@ -6490,7 +6500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>91476</v>
       </c>
@@ -6525,7 +6535,7 @@
         <v>110.56</v>
       </c>
       <c r="P97" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q97" t="s">
         <v>96</v>
@@ -6543,7 +6553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>91477</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>57.02</v>
       </c>
       <c r="P98" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q98" t="s">
         <v>96</v>
@@ -6596,7 +6606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>91486</v>
       </c>
@@ -6634,7 +6644,7 @@
         <v>83</v>
       </c>
       <c r="P99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q99" t="s">
         <v>96</v>
@@ -6652,7 +6662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>90612</v>
       </c>
@@ -6687,10 +6697,10 @@
         <v>30.81</v>
       </c>
       <c r="M100" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P100" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q100" t="s">
         <v>96</v>
@@ -6708,7 +6718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>90660</v>
       </c>
@@ -6746,7 +6756,7 @@
         <v>108</v>
       </c>
       <c r="P101" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q101" t="s">
         <v>96</v>
@@ -6764,7 +6774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100498</v>
       </c>
@@ -6799,7 +6809,7 @@
         <v>19.53</v>
       </c>
       <c r="P102" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q102" t="s">
         <v>96</v>
@@ -6817,7 +6827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100612</v>
       </c>
@@ -6852,7 +6862,7 @@
         <v>54.22</v>
       </c>
       <c r="P103" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q103" t="s">
         <v>96</v>
@@ -6870,7 +6880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100516</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>112.7</v>
       </c>
       <c r="P104" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q104" t="s">
         <v>96</v>
@@ -6923,7 +6933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>100562</v>
       </c>
@@ -6958,7 +6968,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="P105" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q105" t="s">
         <v>96</v>
@@ -6976,7 +6986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>100754</v>
       </c>
@@ -7011,7 +7021,7 @@
         <v>54</v>
       </c>
       <c r="P106" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q106" t="s">
         <v>96</v>
@@ -7029,7 +7039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>100771</v>
       </c>
@@ -7064,7 +7074,7 @@
         <v>102.03</v>
       </c>
       <c r="P107" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q107" t="s">
         <v>96</v>
@@ -7082,7 +7092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>101008</v>
       </c>
@@ -7117,7 +7127,7 @@
         <v>15.79</v>
       </c>
       <c r="P108" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q108" t="s">
         <v>96</v>
@@ -7135,7 +7145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>100905</v>
       </c>
@@ -7170,7 +7180,7 @@
         <v>41.17</v>
       </c>
       <c r="P109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q109" t="s">
         <v>96</v>
@@ -7188,7 +7198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>100906</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>35.659999999999997</v>
       </c>
       <c r="P110" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q110" t="s">
         <v>96</v>
@@ -7241,7 +7251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>100955</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>21.42</v>
       </c>
       <c r="P111" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q111" t="s">
         <v>96</v>
@@ -7294,7 +7304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>100960</v>
       </c>
@@ -7329,7 +7339,7 @@
         <v>121.72</v>
       </c>
       <c r="P112" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q112" t="s">
         <v>96</v>
@@ -7347,7 +7357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>100963</v>
       </c>
@@ -7382,7 +7392,7 @@
         <v>19.13</v>
       </c>
       <c r="P113" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q113" t="s">
         <v>96</v>
@@ -7400,7 +7410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>101111</v>
       </c>
@@ -7435,7 +7445,7 @@
         <v>39.07</v>
       </c>
       <c r="P114" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q114" t="s">
         <v>96</v>
@@ -7453,7 +7463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>101118</v>
       </c>
@@ -7488,7 +7498,7 @@
         <v>34.65</v>
       </c>
       <c r="P115" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q115" t="s">
         <v>96</v>
@@ -7506,7 +7516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>110061</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>31.23</v>
       </c>
       <c r="P116" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q116" t="s">
         <v>96</v>
@@ -7559,7 +7569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>110526</v>
       </c>
@@ -7590,14 +7600,14 @@
       <c r="J117">
         <v>19.84</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>39</v>
+      <c r="K117" s="1">
+        <v>20.350000000000001</v>
       </c>
       <c r="O117" t="s">
         <v>109</v>
       </c>
       <c r="P117" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q117" t="s">
         <v>96</v>
@@ -7615,7 +7625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>110680</v>
       </c>
@@ -7650,7 +7660,7 @@
         <v>38.479999999999997</v>
       </c>
       <c r="P118" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q118" t="s">
         <v>96</v>
@@ -7668,7 +7678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>110788</v>
       </c>
@@ -7703,7 +7713,7 @@
         <v>22.06</v>
       </c>
       <c r="P119" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q119" t="s">
         <v>96</v>
@@ -7721,7 +7731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>110791</v>
       </c>
@@ -7756,7 +7766,7 @@
         <v>23.92</v>
       </c>
       <c r="P120" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q120" t="s">
         <v>96</v>
@@ -7774,7 +7784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>110798</v>
       </c>
@@ -7809,7 +7819,7 @@
         <v>66.459999999999994</v>
       </c>
       <c r="P121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q121" t="s">
         <v>96</v>
@@ -7827,7 +7837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>110901</v>
       </c>
@@ -7862,7 +7872,7 @@
         <v>108.49</v>
       </c>
       <c r="P122" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q122" t="s">
         <v>96</v>
@@ -7880,7 +7890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>111014</v>
       </c>
@@ -7915,7 +7925,7 @@
         <v>25.92</v>
       </c>
       <c r="P123" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q123" t="s">
         <v>96</v>
@@ -7933,7 +7943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>111030</v>
       </c>
@@ -7968,7 +7978,7 @@
         <v>109.14</v>
       </c>
       <c r="P124" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q124" t="s">
         <v>96</v>
@@ -7986,7 +7996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>111032</v>
       </c>
@@ -8021,7 +8031,7 @@
         <v>71.84</v>
       </c>
       <c r="P125" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q125" t="s">
         <v>96</v>
@@ -8039,7 +8049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>111032</v>
       </c>
@@ -8074,7 +8084,7 @@
         <v>63.71</v>
       </c>
       <c r="P126" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q126" t="s">
         <v>96</v>
@@ -8092,7 +8102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>111039</v>
       </c>
@@ -8127,7 +8137,7 @@
         <v>29.41</v>
       </c>
       <c r="P127" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q127" t="s">
         <v>96</v>
@@ -8145,7 +8155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>111092</v>
       </c>
@@ -8183,7 +8193,7 @@
         <v>107</v>
       </c>
       <c r="P128" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q128" t="s">
         <v>96</v>
@@ -8201,7 +8211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>111093</v>
       </c>
@@ -8239,7 +8249,7 @@
         <v>107</v>
       </c>
       <c r="P129" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q129" t="s">
         <v>96</v>
@@ -8257,7 +8267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>120278</v>
       </c>
@@ -8292,7 +8302,7 @@
         <v>46.71</v>
       </c>
       <c r="P130" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q130" t="s">
         <v>96</v>
@@ -8310,7 +8320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>120755</v>
       </c>
@@ -8345,7 +8355,7 @@
         <v>35.25</v>
       </c>
       <c r="P131" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q131" t="s">
         <v>96</v>
@@ -8363,7 +8373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>120777</v>
       </c>
@@ -8398,7 +8408,7 @@
         <v>133.07</v>
       </c>
       <c r="P132" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q132" t="s">
         <v>96</v>
@@ -8416,7 +8426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>120781</v>
       </c>
@@ -8451,7 +8461,7 @@
         <v>125.85</v>
       </c>
       <c r="P133" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q133" t="s">
         <v>96</v>
@@ -8469,7 +8479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>120790</v>
       </c>
@@ -8504,7 +8514,7 @@
         <v>31.52</v>
       </c>
       <c r="P134" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q134" t="s">
         <v>96</v>
@@ -8522,7 +8532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>121221</v>
       </c>
@@ -8557,7 +8567,7 @@
         <v>10.44</v>
       </c>
       <c r="P135" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q135" t="s">
         <v>96</v>
@@ -8575,7 +8585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>121275</v>
       </c>
@@ -8610,7 +8620,7 @@
         <v>29.8</v>
       </c>
       <c r="P136" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q136" t="s">
         <v>96</v>
@@ -8628,7 +8638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>121291</v>
       </c>
@@ -8666,7 +8676,7 @@
         <v>107</v>
       </c>
       <c r="P137" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q137" t="s">
         <v>96</v>
@@ -8684,7 +8694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>121195</v>
       </c>
@@ -8719,7 +8729,7 @@
         <v>130.21</v>
       </c>
       <c r="P138" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q138" t="s">
         <v>96</v>
@@ -8737,7 +8747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>121301</v>
       </c>
@@ -8772,7 +8782,7 @@
         <v>14.79</v>
       </c>
       <c r="P139" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q139" t="s">
         <v>96</v>
@@ -8790,7 +8800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>121305</v>
       </c>
@@ -8825,7 +8835,7 @@
         <v>27.73</v>
       </c>
       <c r="P140" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q140" t="s">
         <v>96</v>
@@ -8843,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>130838</v>
       </c>
@@ -8878,7 +8888,7 @@
         <v>63.68</v>
       </c>
       <c r="P141" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q141" t="s">
         <v>96</v>
@@ -8896,7 +8906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>131009</v>
       </c>
@@ -8937,7 +8947,7 @@
         <v>110</v>
       </c>
       <c r="P142" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q142" t="s">
         <v>96</v>
@@ -8955,7 +8965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>131087</v>
       </c>
@@ -8993,7 +9003,7 @@
         <v>107</v>
       </c>
       <c r="P143" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q143" t="s">
         <v>96</v>
@@ -9011,7 +9021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>131092</v>
       </c>
@@ -9049,7 +9059,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q144" t="s">
         <v>96</v>
@@ -9067,7 +9077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>131096</v>
       </c>
@@ -9102,7 +9112,7 @@
         <v>19.32</v>
       </c>
       <c r="P145" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q145" t="s">
         <v>96</v>
@@ -9120,7 +9130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>140646</v>
       </c>
@@ -9155,7 +9165,7 @@
         <v>110.34</v>
       </c>
       <c r="P146" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q146" t="s">
         <v>96</v>
@@ -9173,7 +9183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>140751</v>
       </c>
@@ -9205,16 +9215,16 @@
         <v>39</v>
       </c>
       <c r="K147" s="1">
-        <v>118</v>
+        <v>65.25</v>
       </c>
       <c r="M147" t="s">
         <v>111</v>
       </c>
       <c r="O147" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="P147" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q147" t="s">
         <v>96</v>
@@ -9232,7 +9242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>140813</v>
       </c>
@@ -9267,10 +9277,10 @@
         <v>124.46</v>
       </c>
       <c r="M148" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P148" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q148" t="s">
         <v>96</v>
@@ -9288,7 +9298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>140821</v>
       </c>
@@ -9329,7 +9339,7 @@
         <v>110</v>
       </c>
       <c r="P149" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q149" t="s">
         <v>96</v>
@@ -9347,7 +9357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>140825</v>
       </c>
@@ -9388,7 +9398,7 @@
         <v>110</v>
       </c>
       <c r="P150" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q150" t="s">
         <v>96</v>
@@ -9406,7 +9416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>140829</v>
       </c>
@@ -9441,13 +9451,13 @@
         <v>64.08</v>
       </c>
       <c r="M151" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O151" t="s">
         <v>110</v>
       </c>
       <c r="P151" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q151" t="s">
         <v>96</v>
@@ -9465,7 +9475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>140833</v>
       </c>
@@ -9506,7 +9516,7 @@
         <v>110</v>
       </c>
       <c r="P152" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q152" t="s">
         <v>96</v>
@@ -9524,7 +9534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10469</v>
       </c>
@@ -9562,7 +9572,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q153" t="s">
         <v>96</v>
@@ -9580,7 +9590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10609</v>
       </c>
@@ -9618,7 +9628,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q154" t="s">
         <v>96</v>
@@ -9636,7 +9646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10587</v>
       </c>
@@ -9674,7 +9684,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q155" t="s">
         <v>96</v>
@@ -9692,7 +9702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10671</v>
       </c>
@@ -9727,7 +9737,7 @@
         <v>112.33</v>
       </c>
       <c r="P156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q156" t="s">
         <v>96</v>
@@ -9745,7 +9755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>20587</v>
       </c>
@@ -9780,7 +9790,7 @@
         <v>53.31</v>
       </c>
       <c r="P157" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q157" t="s">
         <v>96</v>
@@ -9798,7 +9808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>20617</v>
       </c>
@@ -9833,7 +9843,7 @@
         <v>71.849999999999994</v>
       </c>
       <c r="P158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q158" t="s">
         <v>96</v>
@@ -9851,7 +9861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>20712</v>
       </c>
@@ -9886,7 +9896,7 @@
         <v>100.42</v>
       </c>
       <c r="P159" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q159" t="s">
         <v>96</v>
@@ -9904,7 +9914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20737</v>
       </c>
@@ -9939,7 +9949,7 @@
         <v>13.32</v>
       </c>
       <c r="P160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q160" t="s">
         <v>96</v>
@@ -9957,7 +9967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>30225</v>
       </c>
@@ -9992,7 +10002,7 @@
         <v>37.65</v>
       </c>
       <c r="P161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q161" t="s">
         <v>96</v>
@@ -10010,7 +10020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>30233</v>
       </c>
@@ -10045,7 +10055,7 @@
         <v>83.46</v>
       </c>
       <c r="P162" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q162" t="s">
         <v>96</v>
@@ -10063,7 +10073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>30234</v>
       </c>
@@ -10098,7 +10108,7 @@
         <v>18.68</v>
       </c>
       <c r="P163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q163" t="s">
         <v>96</v>
@@ -10116,7 +10126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>30331</v>
       </c>
@@ -10151,7 +10161,7 @@
         <v>20.41</v>
       </c>
       <c r="P164" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q164" t="s">
         <v>96</v>
@@ -10169,7 +10179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>30333</v>
       </c>
@@ -10204,7 +10214,7 @@
         <v>95.11</v>
       </c>
       <c r="P165" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q165" t="s">
         <v>96</v>
@@ -10222,7 +10232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>30339</v>
       </c>
@@ -10260,7 +10270,7 @@
         <v>87</v>
       </c>
       <c r="P166" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q166" t="s">
         <v>96</v>
@@ -10278,7 +10288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>30339</v>
       </c>
@@ -10313,7 +10323,7 @@
         <v>132.79</v>
       </c>
       <c r="P167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q167" t="s">
         <v>96</v>
@@ -10331,7 +10341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>30339</v>
       </c>
@@ -10366,7 +10376,7 @@
         <v>51.48</v>
       </c>
       <c r="P168" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q168" t="s">
         <v>96</v>
@@ -10384,7 +10394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>30462</v>
       </c>
@@ -10419,7 +10429,7 @@
         <v>21.59</v>
       </c>
       <c r="P169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q169" t="s">
         <v>96</v>
@@ -10437,7 +10447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>30512</v>
       </c>
@@ -10475,7 +10485,7 @@
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q170" t="s">
         <v>96</v>
@@ -10493,7 +10503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>30467</v>
       </c>
@@ -10528,7 +10538,7 @@
         <v>129.15</v>
       </c>
       <c r="P171" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q171" t="s">
         <v>96</v>
@@ -10546,7 +10556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>40562</v>
       </c>
@@ -10581,7 +10591,7 @@
         <v>12.41</v>
       </c>
       <c r="P172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q172" t="s">
         <v>96</v>
@@ -10599,7 +10609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>40563</v>
       </c>
@@ -10637,7 +10647,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q173" t="s">
         <v>96</v>
@@ -10655,7 +10665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>40564</v>
       </c>
@@ -10690,7 +10700,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="P174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q174" t="s">
         <v>96</v>
@@ -10708,7 +10718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>40565</v>
       </c>
@@ -10743,10 +10753,10 @@
         <v>39</v>
       </c>
       <c r="O175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P175" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q175" t="s">
         <v>96</v>
@@ -10764,7 +10774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>40566</v>
       </c>
@@ -10802,7 +10812,7 @@
         <v>87</v>
       </c>
       <c r="P176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q176" t="s">
         <v>96</v>
@@ -10820,7 +10830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>40567</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>26.05</v>
       </c>
       <c r="P177" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q177" t="s">
         <v>96</v>
@@ -10873,7 +10883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>40568</v>
       </c>
@@ -10911,7 +10921,7 @@
         <v>85</v>
       </c>
       <c r="P178" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q178" t="s">
         <v>96</v>
@@ -10929,7 +10939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>40569</v>
       </c>
@@ -10967,7 +10977,7 @@
         <v>87</v>
       </c>
       <c r="P179" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q179" t="s">
         <v>96</v>
@@ -10985,7 +10995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>40635</v>
       </c>
@@ -11020,7 +11030,7 @@
         <v>58.43</v>
       </c>
       <c r="P180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q180" t="s">
         <v>96</v>
@@ -11038,7 +11048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>40941</v>
       </c>
@@ -11073,7 +11083,7 @@
         <v>33.479999999999997</v>
       </c>
       <c r="P181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q181" t="s">
         <v>96</v>
@@ -11091,7 +11101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>40942</v>
       </c>
@@ -11126,7 +11136,7 @@
         <v>121.98</v>
       </c>
       <c r="P182" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q182" t="s">
         <v>96</v>
@@ -11144,7 +11154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>40972</v>
       </c>
@@ -11182,7 +11192,7 @@
         <v>85</v>
       </c>
       <c r="P183" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q183" t="s">
         <v>96</v>
@@ -11200,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>50525</v>
       </c>
@@ -11238,7 +11248,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q184" t="s">
         <v>96</v>
@@ -11256,7 +11266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>50622</v>
       </c>
@@ -11291,7 +11301,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="P185" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q185" t="s">
         <v>96</v>
@@ -11309,7 +11319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>50562</v>
       </c>
@@ -11344,7 +11354,7 @@
         <v>52.64</v>
       </c>
       <c r="P186" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q186" t="s">
         <v>96</v>
@@ -11362,7 +11372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>50646</v>
       </c>
@@ -11397,7 +11407,7 @@
         <v>46.26</v>
       </c>
       <c r="P187" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q187" t="s">
         <v>96</v>
@@ -11415,7 +11425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>50650</v>
       </c>
@@ -11450,7 +11460,7 @@
         <v>26.89</v>
       </c>
       <c r="P188" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q188" t="s">
         <v>96</v>
@@ -11468,7 +11478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>50654</v>
       </c>
@@ -11503,7 +11513,7 @@
         <v>80.69</v>
       </c>
       <c r="P189" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q189" t="s">
         <v>96</v>
@@ -11521,7 +11531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>60456</v>
       </c>
@@ -11556,7 +11566,7 @@
         <v>10.53</v>
       </c>
       <c r="P190" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q190" t="s">
         <v>96</v>
@@ -11574,7 +11584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>60457</v>
       </c>
@@ -11609,7 +11619,7 @@
         <v>16.86</v>
       </c>
       <c r="P191" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q191" t="s">
         <v>96</v>
@@ -11627,7 +11637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>60566</v>
       </c>
@@ -11662,10 +11672,10 @@
         <v>15.28</v>
       </c>
       <c r="L192" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="P192" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q192" t="s">
         <v>96</v>
@@ -11683,7 +11693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>60567</v>
       </c>
@@ -11718,7 +11728,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="P193" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q193" t="s">
         <v>96</v>
@@ -11736,7 +11746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>60568</v>
       </c>
@@ -11771,7 +11781,7 @@
         <v>15.87</v>
       </c>
       <c r="P194" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q194" t="s">
         <v>96</v>
@@ -11789,7 +11799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>60573</v>
       </c>
@@ -11824,7 +11834,7 @@
         <v>59.3</v>
       </c>
       <c r="P195" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q195" t="s">
         <v>96</v>
@@ -11842,7 +11852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>60458</v>
       </c>
@@ -11877,7 +11887,7 @@
         <v>60.1</v>
       </c>
       <c r="P196" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q196" t="s">
         <v>96</v>
@@ -11895,7 +11905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>60459</v>
       </c>
@@ -11930,7 +11940,7 @@
         <v>27.9</v>
       </c>
       <c r="P197" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q197" t="s">
         <v>96</v>
@@ -11948,7 +11958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>60462</v>
       </c>
@@ -11986,7 +11996,7 @@
         <v>85</v>
       </c>
       <c r="P198" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q198" t="s">
         <v>96</v>
@@ -12004,7 +12014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>60463</v>
       </c>
@@ -12039,7 +12049,7 @@
         <v>85.72</v>
       </c>
       <c r="P199" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q199" t="s">
         <v>96</v>
@@ -12057,7 +12067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>60468</v>
       </c>
@@ -12092,7 +12102,7 @@
         <v>13.23</v>
       </c>
       <c r="P200" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q200" t="s">
         <v>96</v>
@@ -12110,7 +12120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>60469</v>
       </c>
@@ -12145,7 +12155,7 @@
         <v>10.59</v>
       </c>
       <c r="P201" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q201" t="s">
         <v>96</v>
@@ -12163,7 +12173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>60576</v>
       </c>
@@ -12198,7 +12208,7 @@
         <v>27.37</v>
       </c>
       <c r="P202" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q202" t="s">
         <v>96</v>
@@ -12216,7 +12226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>60577</v>
       </c>
@@ -12251,7 +12261,7 @@
         <v>53.54</v>
       </c>
       <c r="P203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q203" t="s">
         <v>96</v>
@@ -12269,7 +12279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>60578</v>
       </c>
@@ -12304,7 +12314,7 @@
         <v>30.97</v>
       </c>
       <c r="P204" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q204" t="s">
         <v>96</v>
@@ -12322,7 +12332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>60581</v>
       </c>
@@ -12357,7 +12367,7 @@
         <v>45.4</v>
       </c>
       <c r="P205" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q205" t="s">
         <v>96</v>
@@ -12375,7 +12385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>60582</v>
       </c>
@@ -12410,10 +12420,10 @@
         <v>10.33</v>
       </c>
       <c r="L206" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="P206" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q206" t="s">
         <v>96</v>
@@ -12431,7 +12441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>60586</v>
       </c>
@@ -12466,7 +12476,7 @@
         <v>13.2</v>
       </c>
       <c r="P207" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q207" t="s">
         <v>96</v>
@@ -12484,7 +12494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>60587</v>
       </c>
@@ -12519,7 +12529,7 @@
         <v>24.79</v>
       </c>
       <c r="P208" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q208" t="s">
         <v>96</v>
@@ -12537,7 +12547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>60588</v>
       </c>
@@ -12572,7 +12582,7 @@
         <v>53.56</v>
       </c>
       <c r="P209" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q209" t="s">
         <v>96</v>
@@ -12590,7 +12600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>70216</v>
       </c>
@@ -12628,7 +12638,7 @@
         <v>87</v>
       </c>
       <c r="P210" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q210" t="s">
         <v>96</v>
@@ -12646,7 +12656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>70220</v>
       </c>
@@ -12684,7 +12694,7 @@
         <v>87</v>
       </c>
       <c r="P211" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q211" t="s">
         <v>96</v>
@@ -12702,7 +12712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>70492</v>
       </c>
@@ -12740,7 +12750,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q212" t="s">
         <v>96</v>
@@ -12758,7 +12768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>70493</v>
       </c>
@@ -12793,7 +12803,7 @@
         <v>32.35</v>
       </c>
       <c r="P213" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q213" t="s">
         <v>96</v>
@@ -12811,7 +12821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>70494</v>
       </c>
@@ -12846,10 +12856,10 @@
         <v>6.3</v>
       </c>
       <c r="L214" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="P214" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q214" t="s">
         <v>96</v>
@@ -12867,7 +12877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>70495</v>
       </c>
@@ -12902,10 +12912,10 @@
         <v>9.15</v>
       </c>
       <c r="L215" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="P215" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q215" t="s">
         <v>96</v>
@@ -12923,7 +12933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>70581</v>
       </c>
@@ -12958,7 +12968,7 @@
         <v>41.96</v>
       </c>
       <c r="P216" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q216" t="s">
         <v>96</v>
@@ -12976,7 +12986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>80121</v>
       </c>
@@ -13011,7 +13021,7 @@
         <v>15.01</v>
       </c>
       <c r="P217" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q217" t="s">
         <v>96</v>
@@ -13029,7 +13039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>90684</v>
       </c>
@@ -13064,7 +13074,7 @@
         <v>26.2</v>
       </c>
       <c r="P218" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q218" t="s">
         <v>96</v>
@@ -13082,7 +13092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>101223</v>
       </c>
@@ -13117,7 +13127,7 @@
         <v>54.57</v>
       </c>
       <c r="P219" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q219" t="s">
         <v>96</v>
@@ -13135,7 +13145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>101244</v>
       </c>
@@ -13170,7 +13180,7 @@
         <v>85.32</v>
       </c>
       <c r="P220" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q220" t="s">
         <v>96</v>
@@ -13188,7 +13198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>111305</v>
       </c>
@@ -13223,7 +13233,7 @@
         <v>3.29</v>
       </c>
       <c r="P221" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q221" t="s">
         <v>96</v>
@@ -13241,7 +13251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>121438</v>
       </c>
@@ -13276,7 +13286,7 @@
         <v>39.14</v>
       </c>
       <c r="P222" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q222" t="s">
         <v>96</v>
@@ -13294,7 +13304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>131188</v>
       </c>
@@ -13329,7 +13339,7 @@
         <v>77.83</v>
       </c>
       <c r="P223" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q223" t="s">
         <v>96</v>
@@ -13347,7 +13357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>131233</v>
       </c>
@@ -13382,7 +13392,7 @@
         <v>89.8</v>
       </c>
       <c r="P224" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q224" t="s">
         <v>96</v>
@@ -13400,7 +13410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>131239</v>
       </c>
@@ -13435,7 +13445,7 @@
         <v>56.21</v>
       </c>
       <c r="P225" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q225" t="s">
         <v>96</v>
@@ -13453,7 +13463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>140872</v>
       </c>
@@ -13488,7 +13498,7 @@
         <v>82.09</v>
       </c>
       <c r="P226" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q226" t="s">
         <v>96</v>
@@ -13506,7 +13516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>141216</v>
       </c>
@@ -13541,7 +13551,7 @@
         <v>35.29</v>
       </c>
       <c r="P227" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q227" t="s">
         <v>96</v>
@@ -13559,7 +13569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>12025</v>
       </c>
@@ -13594,7 +13604,7 @@
         <v>119.74</v>
       </c>
       <c r="P228" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q228" t="s">
         <v>96</v>
@@ -13612,7 +13622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>12259</v>
       </c>
@@ -13647,7 +13657,7 @@
         <v>25.91</v>
       </c>
       <c r="P229" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q229" t="s">
         <v>96</v>
@@ -13665,7 +13675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>12416</v>
       </c>
@@ -13700,7 +13710,7 @@
         <v>13.46</v>
       </c>
       <c r="P230" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q230" t="s">
         <v>96</v>
@@ -13718,7 +13728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>12508</v>
       </c>
@@ -13753,7 +13763,7 @@
         <v>77</v>
       </c>
       <c r="P231" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q231" t="s">
         <v>96</v>
@@ -13771,7 +13781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>22004</v>
       </c>
@@ -13806,7 +13816,7 @@
         <v>77.44</v>
       </c>
       <c r="P232" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q232" t="s">
         <v>96</v>
@@ -13824,7 +13834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>22041</v>
       </c>
@@ -13859,7 +13869,7 @@
         <v>75.260000000000005</v>
       </c>
       <c r="P233" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q233" t="s">
         <v>96</v>
@@ -13877,7 +13887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>22141</v>
       </c>
@@ -13912,7 +13922,7 @@
         <v>11.39</v>
       </c>
       <c r="P234" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q234" t="s">
         <v>96</v>
@@ -13930,7 +13940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>22170</v>
       </c>
@@ -13965,7 +13975,7 @@
         <v>46.89</v>
       </c>
       <c r="P235" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q235" t="s">
         <v>96</v>
@@ -13983,7 +13993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>22186</v>
       </c>
@@ -14018,10 +14028,10 @@
         <v>1.7</v>
       </c>
       <c r="O236" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P236" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q236" t="s">
         <v>96</v>
@@ -14039,7 +14049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>22198</v>
       </c>
@@ -14074,7 +14084,7 @@
         <v>12.69</v>
       </c>
       <c r="P237" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q237" t="s">
         <v>96</v>
@@ -14092,7 +14102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>22315</v>
       </c>
@@ -14127,7 +14137,7 @@
         <v>18.489999999999998</v>
       </c>
       <c r="P238" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q238" t="s">
         <v>96</v>
@@ -14145,7 +14155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>22489</v>
       </c>
@@ -14180,7 +14190,7 @@
         <v>8.56</v>
       </c>
       <c r="P239" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q239" t="s">
         <v>96</v>
@@ -14198,7 +14208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>22601</v>
       </c>
@@ -14236,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q240" t="s">
         <v>96</v>
@@ -14254,7 +14264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>30584</v>
       </c>
@@ -14289,7 +14299,7 @@
         <v>114.54</v>
       </c>
       <c r="P241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q241" t="s">
         <v>96</v>
@@ -14307,7 +14317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>32097</v>
       </c>
@@ -14342,7 +14352,7 @@
         <v>49.61</v>
       </c>
       <c r="P242" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q242" t="s">
         <v>96</v>
@@ -14360,7 +14370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>32126</v>
       </c>
@@ -14395,7 +14405,7 @@
         <v>136.99</v>
       </c>
       <c r="P243" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q243" t="s">
         <v>96</v>
@@ -14413,7 +14423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>32157</v>
       </c>
@@ -14448,10 +14458,10 @@
         <v>1.67</v>
       </c>
       <c r="O244" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q244" t="s">
         <v>96</v>
@@ -14469,7 +14479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>32180</v>
       </c>
@@ -14504,7 +14514,7 @@
         <v>15.9</v>
       </c>
       <c r="P245" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q245" t="s">
         <v>96</v>
@@ -14522,7 +14532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>32381</v>
       </c>
@@ -14557,7 +14567,7 @@
         <v>112.01</v>
       </c>
       <c r="P246" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q246" t="s">
         <v>96</v>
@@ -14575,7 +14585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>32423</v>
       </c>
@@ -14610,7 +14620,7 @@
         <v>118.03</v>
       </c>
       <c r="P247" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q247" t="s">
         <v>96</v>
@@ -14628,7 +14638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>32540</v>
       </c>
@@ -14663,7 +14673,7 @@
         <v>114.67</v>
       </c>
       <c r="P248" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q248" t="s">
         <v>96</v>
@@ -14681,7 +14691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>42009</v>
       </c>
@@ -14716,7 +14726,7 @@
         <v>133.02000000000001</v>
       </c>
       <c r="P249" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q249" t="s">
         <v>96</v>
@@ -14734,7 +14744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>42397</v>
       </c>
@@ -14769,7 +14779,7 @@
         <v>140.86000000000001</v>
       </c>
       <c r="P250" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q250" t="s">
         <v>96</v>
@@ -14787,7 +14797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>52087</v>
       </c>
@@ -14822,7 +14832,7 @@
         <v>44.1</v>
       </c>
       <c r="P251" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q251" t="s">
         <v>96</v>
@@ -14840,7 +14850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>52190</v>
       </c>
@@ -14875,7 +14885,7 @@
         <v>70.03</v>
       </c>
       <c r="P252" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q252" t="s">
         <v>96</v>
@@ -14893,7 +14903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>52344</v>
       </c>
@@ -14928,7 +14938,7 @@
         <v>8.34</v>
       </c>
       <c r="P253" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q253" t="s">
         <v>96</v>
@@ -14946,7 +14956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>52384</v>
       </c>
@@ -14981,7 +14991,7 @@
         <v>7.28</v>
       </c>
       <c r="P254" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q254" t="s">
         <v>96</v>
@@ -14999,7 +15009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>62114</v>
       </c>
@@ -15034,7 +15044,7 @@
         <v>47.97</v>
       </c>
       <c r="P255" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q255" t="s">
         <v>96</v>
@@ -15052,7 +15062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>62121</v>
       </c>
@@ -15087,7 +15097,7 @@
         <v>13</v>
       </c>
       <c r="P256" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q256" t="s">
         <v>96</v>
@@ -15105,7 +15115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>62128</v>
       </c>
@@ -15140,7 +15150,7 @@
         <v>12.88</v>
       </c>
       <c r="P257" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q257" t="s">
         <v>96</v>
@@ -15158,7 +15168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>62181</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>141.44999999999999</v>
       </c>
       <c r="P258" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q258" t="s">
         <v>96</v>
@@ -15211,7 +15221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>62224</v>
       </c>
@@ -15246,7 +15256,7 @@
         <v>44.16</v>
       </c>
       <c r="P259" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q259" t="s">
         <v>96</v>
@@ -15264,7 +15274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>62241</v>
       </c>
@@ -15299,7 +15309,7 @@
         <v>39.68</v>
       </c>
       <c r="P260" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q260" t="s">
         <v>96</v>
@@ -15317,7 +15327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>72024</v>
       </c>
@@ -15352,7 +15362,7 @@
         <v>67.09</v>
       </c>
       <c r="P261" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q261" t="s">
         <v>96</v>
@@ -15370,7 +15380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>72104</v>
       </c>
@@ -15405,7 +15415,7 @@
         <v>21.9</v>
       </c>
       <c r="P262" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q262" t="s">
         <v>96</v>
@@ -15423,7 +15433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>72115</v>
       </c>
@@ -15458,7 +15468,7 @@
         <v>114.94</v>
       </c>
       <c r="P263" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q263" t="s">
         <v>96</v>
@@ -15476,7 +15486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>72116</v>
       </c>
@@ -15511,7 +15521,7 @@
         <v>55.93</v>
       </c>
       <c r="P264" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q264" t="s">
         <v>96</v>
@@ -15529,7 +15539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>72122</v>
       </c>
@@ -15564,10 +15574,10 @@
         <v>39</v>
       </c>
       <c r="O265" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P265" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q265" t="s">
         <v>96</v>
@@ -15585,7 +15595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>72124</v>
       </c>
@@ -15620,7 +15630,7 @@
         <v>66.84</v>
       </c>
       <c r="P266" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q266" t="s">
         <v>96</v>
@@ -15638,7 +15648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>72149</v>
       </c>
@@ -15673,7 +15683,7 @@
         <v>52.36</v>
       </c>
       <c r="P267" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q267" t="s">
         <v>96</v>
@@ -15691,7 +15701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>72173</v>
       </c>
@@ -15726,7 +15736,7 @@
         <v>27.16</v>
       </c>
       <c r="P268" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q268" t="s">
         <v>96</v>
@@ -15744,7 +15754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>72210</v>
       </c>
@@ -15779,7 +15789,7 @@
         <v>39.4</v>
       </c>
       <c r="P269" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q269" t="s">
         <v>96</v>
@@ -15797,7 +15807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>72232</v>
       </c>
@@ -15832,7 +15842,7 @@
         <v>133.53</v>
       </c>
       <c r="P270" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q270" t="s">
         <v>96</v>
@@ -15850,7 +15860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>72248</v>
       </c>
@@ -15885,7 +15895,7 @@
         <v>75.510000000000005</v>
       </c>
       <c r="P271" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q271" t="s">
         <v>96</v>
@@ -15903,7 +15913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>82091</v>
       </c>
@@ -15938,7 +15948,7 @@
         <v>2.71</v>
       </c>
       <c r="P272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q272" t="s">
         <v>96</v>
@@ -15956,7 +15966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>82117</v>
       </c>
@@ -15991,7 +16001,7 @@
         <v>13.16</v>
       </c>
       <c r="P273" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q273" t="s">
         <v>96</v>
@@ -16009,7 +16019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>82125</v>
       </c>
@@ -16044,7 +16054,7 @@
         <v>34.26</v>
       </c>
       <c r="P274" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q274" t="s">
         <v>96</v>
@@ -16062,7 +16072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>82138</v>
       </c>
@@ -16100,10 +16110,10 @@
         <v>85</v>
       </c>
       <c r="O275" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P275" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q275" t="s">
         <v>96</v>
@@ -16121,7 +16131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>82203</v>
       </c>
@@ -16156,7 +16166,7 @@
         <v>67.3</v>
       </c>
       <c r="P276" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q276" t="s">
         <v>96</v>
@@ -16174,7 +16184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>82219</v>
       </c>
@@ -16209,7 +16219,7 @@
         <v>16.420000000000002</v>
       </c>
       <c r="P277" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q277" t="s">
         <v>96</v>
@@ -16227,7 +16237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>82223</v>
       </c>
@@ -16262,7 +16272,7 @@
         <v>62.86</v>
       </c>
       <c r="P278" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q278" t="s">
         <v>96</v>
@@ -16280,7 +16290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>82226</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>67.459999999999994</v>
       </c>
       <c r="P279" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q279" t="s">
         <v>96</v>
@@ -16333,7 +16343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>90752</v>
       </c>
@@ -16386,7 +16396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>92018</v>
       </c>
@@ -16442,7 +16452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>92112</v>
       </c>
@@ -16495,7 +16505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>92115</v>
       </c>
@@ -16548,7 +16558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>92140</v>
       </c>
@@ -16604,7 +16614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>92141</v>
       </c>
@@ -16660,7 +16670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>92237</v>
       </c>
@@ -16713,7 +16723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>92280</v>
       </c>
@@ -16766,7 +16776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>92347</v>
       </c>
@@ -16825,7 +16835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>102148</v>
       </c>
@@ -16878,7 +16888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>102149</v>
       </c>
@@ -16931,7 +16941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>102150</v>
       </c>
@@ -16987,7 +16997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>102154</v>
       </c>
@@ -17040,7 +17050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>102163</v>
       </c>
@@ -17093,7 +17103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>102177</v>
       </c>
@@ -17146,7 +17156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>102199</v>
       </c>
@@ -17199,7 +17209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>102258</v>
       </c>
@@ -17252,7 +17262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>102261</v>
       </c>
@@ -17305,7 +17315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>102262</v>
       </c>
@@ -17358,7 +17368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>102264</v>
       </c>
@@ -17411,7 +17421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>102303</v>
       </c>
@@ -17467,7 +17477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>112014</v>
       </c>
@@ -17523,7 +17533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>112057</v>
       </c>
@@ -17576,7 +17586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>112130</v>
       </c>
@@ -17629,7 +17639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>112136</v>
       </c>
@@ -17682,7 +17692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>112137</v>
       </c>
@@ -17735,7 +17745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>112142</v>
       </c>
@@ -17788,7 +17798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>112250</v>
       </c>
@@ -17844,7 +17854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>112252</v>
       </c>
@@ -17879,7 +17889,7 @@
         <v>122.02</v>
       </c>
       <c r="M308" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P308" t="s">
         <v>96</v>
@@ -17900,7 +17910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>112262</v>
       </c>
@@ -17953,7 +17963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>121367</v>
       </c>
@@ -18006,7 +18016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>121374</v>
       </c>
@@ -18062,7 +18072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>122006</v>
       </c>
@@ -18118,7 +18128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>122009</v>
       </c>
@@ -18174,7 +18184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>122120</v>
       </c>
@@ -18227,7 +18237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>122121</v>
       </c>
@@ -18283,7 +18293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>122136</v>
       </c>
@@ -18336,7 +18346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>122150</v>
       </c>
@@ -18398,7 +18408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>122154</v>
       </c>
@@ -18451,7 +18461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>122184</v>
       </c>
@@ -18504,7 +18514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>122185</v>
       </c>
@@ -18563,7 +18573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>122189</v>
       </c>
@@ -18616,7 +18626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>122248</v>
       </c>
@@ -18669,7 +18679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>122303</v>
       </c>
@@ -18722,7 +18732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>131364</v>
       </c>
@@ -18778,7 +18788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>131422</v>
       </c>
@@ -18834,7 +18844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>132077</v>
       </c>
@@ -18890,7 +18900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>132171</v>
       </c>
@@ -18943,7 +18953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>132302</v>
       </c>
@@ -19002,7 +19012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>132311</v>
       </c>
@@ -19055,7 +19065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>132321</v>
       </c>
@@ -19111,7 +19121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>132280</v>
       </c>
@@ -19170,7 +19180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>142113</v>
       </c>
@@ -19223,7 +19233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>142521</v>
       </c>
@@ -19276,7 +19286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>142527</v>
       </c>
@@ -19332,7 +19342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>142548</v>
       </c>
@@ -19388,7 +19398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>151618</v>
       </c>
@@ -19450,7 +19460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>152153</v>
       </c>
@@ -19503,7 +19513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>161578</v>
       </c>
@@ -19556,7 +19566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>162024</v>
       </c>
@@ -19612,7 +19622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>162293</v>
       </c>
@@ -19668,7 +19678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>162503</v>
       </c>
@@ -19727,7 +19737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>171505</v>
       </c>
@@ -19780,7 +19790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>171506</v>
       </c>
@@ -19836,7 +19846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>172201</v>
       </c>
@@ -19889,7 +19899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>172202</v>
       </c>
@@ -19942,7 +19952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>172203</v>
       </c>
@@ -19995,7 +20005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>172205</v>
       </c>
@@ -20048,7 +20058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>172248</v>
       </c>
@@ -20104,7 +20114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>172382</v>
       </c>
@@ -20157,7 +20167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>181030</v>
       </c>
@@ -20210,7 +20220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>181033</v>
       </c>
@@ -20263,7 +20273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>182207</v>
       </c>
@@ -20316,7 +20326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>182208</v>
       </c>
@@ -20369,7 +20379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>182376</v>
       </c>
@@ -20425,7 +20435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>182570</v>
       </c>
@@ -20478,7 +20488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>190840</v>
       </c>
@@ -20531,7 +20541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>192008</v>
       </c>
@@ -20584,7 +20594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>192244</v>
       </c>
@@ -20637,7 +20647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>192133</v>
       </c>
@@ -20693,7 +20703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>201432</v>
       </c>
@@ -20746,7 +20756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>201441</v>
       </c>
@@ -20799,7 +20809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>202201</v>
       </c>
@@ -20852,7 +20862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>202203</v>
       </c>
@@ -20905,7 +20915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>202212</v>
       </c>
@@ -20961,7 +20971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>202215</v>
       </c>
@@ -21017,7 +21027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>202050</v>
       </c>
@@ -21070,7 +21080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>202276</v>
       </c>
@@ -21123,7 +21133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>202072</v>
       </c>
@@ -21176,7 +21186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>202283</v>
       </c>
@@ -21235,7 +21245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>202336</v>
       </c>
@@ -21294,7 +21304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>202337</v>
       </c>
@@ -21350,7 +21360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>62285</v>
       </c>
@@ -21385,7 +21395,7 @@
         <v>77.5</v>
       </c>
       <c r="P372" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q372" t="s">
         <v>96</v>
@@ -21403,7 +21413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>62300</v>
       </c>
@@ -21438,7 +21448,7 @@
         <v>46.36</v>
       </c>
       <c r="P373" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q373" t="s">
         <v>96</v>
@@ -21456,7 +21466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>62312</v>
       </c>
@@ -21491,7 +21501,7 @@
         <v>5.12</v>
       </c>
       <c r="P374" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q374" t="s">
         <v>96</v>
@@ -21509,7 +21519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>62417</v>
       </c>
@@ -21547,7 +21557,7 @@
         <v>55</v>
       </c>
       <c r="P375" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q375" t="s">
         <v>96</v>
@@ -21565,7 +21575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>62449</v>
       </c>
@@ -21600,7 +21610,7 @@
         <v>14.32</v>
       </c>
       <c r="P376" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q376" t="s">
         <v>96</v>
@@ -21618,7 +21628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>72308</v>
       </c>
@@ -21653,7 +21663,7 @@
         <v>72.72</v>
       </c>
       <c r="P377" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q377" t="s">
         <v>96</v>
@@ -21671,7 +21681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>72322</v>
       </c>
@@ -21706,7 +21716,7 @@
         <v>32.29</v>
       </c>
       <c r="P378" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q378" t="s">
         <v>96</v>
@@ -21724,7 +21734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>72324</v>
       </c>
@@ -21759,7 +21769,7 @@
         <v>77.48</v>
       </c>
       <c r="P379" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q379" t="s">
         <v>96</v>
@@ -21777,7 +21787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>72337</v>
       </c>
@@ -21812,7 +21822,7 @@
         <v>77.61</v>
       </c>
       <c r="P380" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q380" t="s">
         <v>96</v>
@@ -21830,7 +21840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>72348</v>
       </c>
@@ -21865,7 +21875,7 @@
         <v>53.69</v>
       </c>
       <c r="P381" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q381" t="s">
         <v>96</v>
@@ -21883,7 +21893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>72357</v>
       </c>
@@ -21918,7 +21928,7 @@
         <v>136.99</v>
       </c>
       <c r="P382" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q382" t="s">
         <v>96</v>
@@ -21936,7 +21946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>72375</v>
       </c>
@@ -21971,7 +21981,7 @@
         <v>109.32</v>
       </c>
       <c r="P383" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q383" t="s">
         <v>96</v>
@@ -21989,7 +21999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>72377</v>
       </c>
@@ -22024,7 +22034,7 @@
         <v>67.16</v>
       </c>
       <c r="P384" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q384" t="s">
         <v>96</v>
@@ -22042,7 +22052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>72427</v>
       </c>
@@ -22077,7 +22087,7 @@
         <v>91.9</v>
       </c>
       <c r="P385" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q385" t="s">
         <v>96</v>
@@ -22095,7 +22105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>72447</v>
       </c>
@@ -22130,7 +22140,7 @@
         <v>106.99</v>
       </c>
       <c r="P386" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q386" t="s">
         <v>96</v>
@@ -22148,7 +22158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>72448</v>
       </c>
@@ -22183,7 +22193,7 @@
         <v>62.71</v>
       </c>
       <c r="P387" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q387" t="s">
         <v>96</v>
@@ -22201,7 +22211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>82284</v>
       </c>
@@ -22236,10 +22246,10 @@
         <v>76.83</v>
       </c>
       <c r="O388" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P388" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q388" t="s">
         <v>96</v>
@@ -22257,7 +22267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>82292</v>
       </c>
@@ -22292,7 +22302,7 @@
         <v>49.35</v>
       </c>
       <c r="P389" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q389" t="s">
         <v>96</v>
@@ -22310,7 +22320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>82298</v>
       </c>
@@ -22345,7 +22355,7 @@
         <v>78.78</v>
       </c>
       <c r="P390" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q390" t="s">
         <v>96</v>
@@ -22363,7 +22373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>82326</v>
       </c>
@@ -22398,7 +22408,7 @@
         <v>24.89</v>
       </c>
       <c r="P391" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q391" t="s">
         <v>96</v>
@@ -22416,7 +22426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>82357</v>
       </c>
@@ -22451,7 +22461,7 @@
         <v>75.47</v>
       </c>
       <c r="P392" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q392" t="s">
         <v>96</v>
@@ -22469,7 +22479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>82360</v>
       </c>
@@ -22504,7 +22514,7 @@
         <v>59.52</v>
       </c>
       <c r="P393" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q393" t="s">
         <v>96</v>
@@ -22522,7 +22532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>82365</v>
       </c>
@@ -22557,7 +22567,7 @@
         <v>65.66</v>
       </c>
       <c r="P394" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q394" t="s">
         <v>96</v>
@@ -22575,7 +22585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>82368</v>
       </c>
@@ -22610,7 +22620,7 @@
         <v>124.7</v>
       </c>
       <c r="P395" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q395" t="s">
         <v>96</v>
@@ -22628,7 +22638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>82419</v>
       </c>
@@ -22663,7 +22673,7 @@
         <v>70.25</v>
       </c>
       <c r="P396" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q396" t="s">
         <v>96</v>
@@ -22681,7 +22691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>82421</v>
       </c>
@@ -22716,7 +22726,7 @@
         <v>22.49</v>
       </c>
       <c r="P397" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q397" t="s">
         <v>96</v>
@@ -22734,7 +22744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>82422</v>
       </c>
@@ -22769,7 +22779,7 @@
         <v>101.69</v>
       </c>
       <c r="P398" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q398" t="s">
         <v>96</v>
@@ -22787,7 +22797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>82434</v>
       </c>
@@ -22822,7 +22832,7 @@
         <v>34.01</v>
       </c>
       <c r="P399" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q399" t="s">
         <v>96</v>
@@ -22840,7 +22850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>92393</v>
       </c>
@@ -22875,7 +22885,7 @@
         <v>121.2</v>
       </c>
       <c r="P400" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q400" t="s">
         <v>96</v>
@@ -22893,7 +22903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>92414</v>
       </c>
@@ -22928,7 +22938,7 @@
         <v>28.52</v>
       </c>
       <c r="P401" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q401" t="s">
         <v>96</v>
@@ -22946,7 +22956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>92466</v>
       </c>
@@ -22981,7 +22991,7 @@
         <v>48.96</v>
       </c>
       <c r="P402" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q402" t="s">
         <v>96</v>
@@ -22999,7 +23009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>92487</v>
       </c>
@@ -23034,7 +23044,7 @@
         <v>22.64</v>
       </c>
       <c r="P403" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q403" t="s">
         <v>96</v>
@@ -23052,7 +23062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>92488</v>
       </c>
@@ -23087,7 +23097,7 @@
         <v>147.1</v>
       </c>
       <c r="P404" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q404" t="s">
         <v>96</v>
@@ -23105,7 +23115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>92545</v>
       </c>
@@ -23140,7 +23150,7 @@
         <v>84.02</v>
       </c>
       <c r="P405" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q405" t="s">
         <v>96</v>
@@ -23158,7 +23168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>92546</v>
       </c>
@@ -23193,7 +23203,7 @@
         <v>77.459999999999994</v>
       </c>
       <c r="P406" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q406" t="s">
         <v>96</v>
@@ -23211,7 +23221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>92547</v>
       </c>
@@ -23246,7 +23256,7 @@
         <v>102.22</v>
       </c>
       <c r="P407" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q407" t="s">
         <v>96</v>
@@ -23264,7 +23274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>102348</v>
       </c>
@@ -23299,7 +23309,7 @@
         <v>48.91</v>
       </c>
       <c r="P408" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q408" t="s">
         <v>96</v>
@@ -23317,7 +23327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>102364</v>
       </c>
@@ -23352,7 +23362,7 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="P409" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q409" t="s">
         <v>96</v>
@@ -23370,7 +23380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>102371</v>
       </c>
@@ -23408,10 +23418,10 @@
         <v>79</v>
       </c>
       <c r="O410" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P410" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q410" t="s">
         <v>96</v>
@@ -23429,7 +23439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>102438</v>
       </c>
@@ -23464,7 +23474,7 @@
         <v>97.74</v>
       </c>
       <c r="P411" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q411" t="s">
         <v>96</v>
@@ -23482,7 +23492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>102438</v>
       </c>
@@ -23517,7 +23527,7 @@
         <v>112.53</v>
       </c>
       <c r="P412" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q412" t="s">
         <v>96</v>
@@ -23535,7 +23545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>102439</v>
       </c>
@@ -23570,7 +23580,7 @@
         <v>21.01</v>
       </c>
       <c r="P413" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q413" t="s">
         <v>96</v>
@@ -23588,7 +23598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>102441</v>
       </c>
@@ -23623,7 +23633,7 @@
         <v>93.37</v>
       </c>
       <c r="P414" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q414" t="s">
         <v>96</v>
@@ -23641,7 +23651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>102443</v>
       </c>
@@ -23676,7 +23686,7 @@
         <v>78.989999999999995</v>
       </c>
       <c r="P415" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q415" t="s">
         <v>96</v>
@@ -23694,7 +23704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>102444</v>
       </c>
@@ -23729,7 +23739,7 @@
         <v>89.35</v>
       </c>
       <c r="P416" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q416" t="s">
         <v>96</v>
@@ -23747,7 +23757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>102446</v>
       </c>
@@ -23782,7 +23792,7 @@
         <v>66.59</v>
       </c>
       <c r="P417" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q417" t="s">
         <v>96</v>
@@ -23800,7 +23810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>102446</v>
       </c>
@@ -23835,7 +23845,7 @@
         <v>30.91</v>
       </c>
       <c r="P418" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q418" t="s">
         <v>96</v>
@@ -23853,7 +23863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>102501</v>
       </c>
@@ -23888,7 +23898,7 @@
         <v>15.72</v>
       </c>
       <c r="P419" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q419" t="s">
         <v>96</v>
@@ -23906,7 +23916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>102502</v>
       </c>
@@ -23941,7 +23951,7 @@
         <v>67.260000000000005</v>
       </c>
       <c r="P420" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q420" t="s">
         <v>96</v>
@@ -23959,7 +23969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>102509</v>
       </c>
@@ -23994,7 +24004,7 @@
         <v>139</v>
       </c>
       <c r="P421" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q421" t="s">
         <v>96</v>
@@ -24012,7 +24022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>102475</v>
       </c>
@@ -24050,10 +24060,10 @@
         <v>87</v>
       </c>
       <c r="O422" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P422" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q422" t="s">
         <v>96</v>
@@ -24071,7 +24081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>112316</v>
       </c>
@@ -24106,7 +24116,7 @@
         <v>136.13999999999999</v>
       </c>
       <c r="P423" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q423" t="s">
         <v>96</v>
@@ -24124,7 +24134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>112336</v>
       </c>
@@ -24159,10 +24169,10 @@
         <v>13.57</v>
       </c>
       <c r="O424" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P424" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q424" t="s">
         <v>96</v>
@@ -24180,7 +24190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>112342</v>
       </c>
@@ -24215,7 +24225,7 @@
         <v>2.56</v>
       </c>
       <c r="P425" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q425" t="s">
         <v>96</v>
@@ -24233,7 +24243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>112350</v>
       </c>
@@ -24268,7 +24278,7 @@
         <v>83.67</v>
       </c>
       <c r="P426" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q426" t="s">
         <v>96</v>
@@ -24286,7 +24296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>112698</v>
       </c>
@@ -24321,7 +24331,7 @@
         <v>39.19</v>
       </c>
       <c r="P427" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q427" t="s">
         <v>96</v>
@@ -24339,7 +24349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>112466</v>
       </c>
@@ -24374,7 +24384,7 @@
         <v>24.62</v>
       </c>
       <c r="P428" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q428" t="s">
         <v>96</v>
@@ -24392,7 +24402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>112467</v>
       </c>
@@ -24427,7 +24437,7 @@
         <v>89.55</v>
       </c>
       <c r="P429" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q429" t="s">
         <v>96</v>
@@ -24445,7 +24455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>112480</v>
       </c>
@@ -24480,7 +24490,7 @@
         <v>90.76</v>
       </c>
       <c r="P430" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q430" t="s">
         <v>96</v>
@@ -24498,7 +24508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>112481</v>
       </c>
@@ -24533,7 +24543,7 @@
         <v>77.81</v>
       </c>
       <c r="P431" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q431" t="s">
         <v>96</v>
@@ -24551,7 +24561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>112482</v>
       </c>
@@ -24586,7 +24596,7 @@
         <v>16.03</v>
       </c>
       <c r="P432" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q432" t="s">
         <v>96</v>
@@ -24604,7 +24614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>122343</v>
       </c>
@@ -24639,7 +24649,7 @@
         <v>24.77</v>
       </c>
       <c r="P433" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q433" t="s">
         <v>96</v>
@@ -24657,7 +24667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>122450</v>
       </c>
@@ -24692,7 +24702,7 @@
         <v>79.260000000000005</v>
       </c>
       <c r="P434" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q434" t="s">
         <v>96</v>
@@ -24710,7 +24720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>122458</v>
       </c>
@@ -24745,7 +24755,7 @@
         <v>18.07</v>
       </c>
       <c r="P435" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q435" t="s">
         <v>96</v>
@@ -24763,7 +24773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>122427</v>
       </c>
@@ -24798,7 +24808,7 @@
         <v>62.58</v>
       </c>
       <c r="P436" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q436" t="s">
         <v>96</v>
@@ -24816,7 +24826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>122439</v>
       </c>
@@ -24851,7 +24861,7 @@
         <v>35.32</v>
       </c>
       <c r="P437" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q437" t="s">
         <v>96</v>
@@ -24869,7 +24879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>122482</v>
       </c>
@@ -24904,7 +24914,7 @@
         <v>112.39</v>
       </c>
       <c r="P438" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q438" t="s">
         <v>96</v>
@@ -24922,7 +24932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>122486</v>
       </c>
@@ -24957,7 +24967,7 @@
         <v>39.32</v>
       </c>
       <c r="P439" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q439" t="s">
         <v>96</v>
@@ -24975,7 +24985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>122489</v>
       </c>
@@ -25010,7 +25020,7 @@
         <v>69.36</v>
       </c>
       <c r="P440" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q440" t="s">
         <v>96</v>
@@ -25028,7 +25038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>122492</v>
       </c>
@@ -25063,7 +25073,7 @@
         <v>60.24</v>
       </c>
       <c r="P441" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q441" t="s">
         <v>96</v>
@@ -25081,7 +25091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>122561</v>
       </c>
@@ -25116,7 +25126,7 @@
         <v>44.24</v>
       </c>
       <c r="P442" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q442" t="s">
         <v>96</v>
@@ -25134,7 +25144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>122522</v>
       </c>
@@ -25169,7 +25179,7 @@
         <v>104.65</v>
       </c>
       <c r="P443" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q443" t="s">
         <v>96</v>
@@ -25187,7 +25197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>132371</v>
       </c>
@@ -25225,10 +25235,10 @@
         <v>87</v>
       </c>
       <c r="O444" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P444" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q444" t="s">
         <v>96</v>
@@ -25246,7 +25256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>132529</v>
       </c>
@@ -25281,7 +25291,7 @@
         <v>63.25</v>
       </c>
       <c r="P445" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q445" t="s">
         <v>96</v>
@@ -25299,7 +25309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>132539</v>
       </c>
@@ -25337,10 +25347,10 @@
         <v>85</v>
       </c>
       <c r="O446" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P446" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q446" t="s">
         <v>96</v>
@@ -25358,7 +25368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>132542</v>
       </c>
@@ -25393,7 +25403,7 @@
         <v>25.19</v>
       </c>
       <c r="P447" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q447" t="s">
         <v>96</v>
@@ -25411,7 +25421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>132545</v>
       </c>
@@ -25446,7 +25456,7 @@
         <v>25.75</v>
       </c>
       <c r="P448" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q448" t="s">
         <v>96</v>
@@ -25464,7 +25474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>142380</v>
       </c>
@@ -25502,10 +25512,10 @@
         <v>85</v>
       </c>
       <c r="O449" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P449" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q449" t="s">
         <v>96</v>
@@ -25523,7 +25533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>142575</v>
       </c>
@@ -25558,7 +25568,7 @@
         <v>125.14</v>
       </c>
       <c r="P450" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q450" t="s">
         <v>96</v>
@@ -25576,7 +25586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>143707</v>
       </c>
@@ -25608,13 +25618,10 @@
         <v>22.6</v>
       </c>
       <c r="K451" s="1">
-        <v>2</v>
-      </c>
-      <c r="O451" t="s">
-        <v>136</v>
+        <v>21.56</v>
       </c>
       <c r="P451" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="Q451" t="s">
         <v>96</v>
@@ -25632,7 +25639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>142399</v>
       </c>
@@ -25667,7 +25674,7 @@
         <v>21.27</v>
       </c>
       <c r="P452" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q452" t="s">
         <v>96</v>
@@ -25685,7 +25692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>142708</v>
       </c>
@@ -25720,7 +25727,7 @@
         <v>26.19</v>
       </c>
       <c r="P453" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q453" t="s">
         <v>96</v>
@@ -25738,7 +25745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>142650</v>
       </c>
@@ -25773,7 +25780,7 @@
         <v>13.37</v>
       </c>
       <c r="P454" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q454" t="s">
         <v>96</v>
@@ -25791,7 +25798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>142656</v>
       </c>
@@ -25826,7 +25833,7 @@
         <v>75.59</v>
       </c>
       <c r="P455" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q455" t="s">
         <v>96</v>
@@ -25844,7 +25851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>142727</v>
       </c>
@@ -25879,7 +25886,7 @@
         <v>15.06</v>
       </c>
       <c r="P456" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q456" t="s">
         <v>96</v>
@@ -25897,7 +25904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>142729</v>
       </c>
@@ -25932,7 +25939,7 @@
         <v>67.75</v>
       </c>
       <c r="P457" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q457" t="s">
         <v>96</v>
@@ -25950,7 +25957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>142730</v>
       </c>
@@ -25985,7 +25992,7 @@
         <v>86.77</v>
       </c>
       <c r="P458" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q458" t="s">
         <v>96</v>
@@ -26003,7 +26010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>142731</v>
       </c>
@@ -26038,7 +26045,7 @@
         <v>66.69</v>
       </c>
       <c r="P459" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q459" t="s">
         <v>96</v>
@@ -26056,7 +26063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>142732</v>
       </c>
@@ -26091,7 +26098,7 @@
         <v>43.82</v>
       </c>
       <c r="P460" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q460" t="s">
         <v>96</v>
@@ -26109,7 +26116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>142733</v>
       </c>
@@ -26144,7 +26151,7 @@
         <v>71.5</v>
       </c>
       <c r="P461" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q461" t="s">
         <v>96</v>
@@ -26162,7 +26169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>152513</v>
       </c>
@@ -26194,16 +26201,13 @@
         <v>21.93</v>
       </c>
       <c r="K462" s="1">
-        <v>45</v>
+        <v>25.57</v>
       </c>
       <c r="M462" t="s">
-        <v>127</v>
-      </c>
-      <c r="O462" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="P462" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="Q462" t="s">
         <v>96</v>
@@ -26221,7 +26225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>152673</v>
       </c>
@@ -26256,7 +26260,7 @@
         <v>110.2</v>
       </c>
       <c r="P463" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q463" t="s">
         <v>96</v>
@@ -26274,7 +26278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>152701</v>
       </c>
@@ -26309,7 +26313,7 @@
         <v>72.39</v>
       </c>
       <c r="P464" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q464" t="s">
         <v>96</v>
@@ -26327,7 +26331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>162439</v>
       </c>
@@ -26362,7 +26366,7 @@
         <v>64.069999999999993</v>
       </c>
       <c r="P465" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q465" t="s">
         <v>96</v>
@@ -26380,7 +26384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>162541</v>
       </c>
@@ -26415,7 +26419,7 @@
         <v>16.510000000000002</v>
       </c>
       <c r="P466" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q466" t="s">
         <v>96</v>
@@ -26433,7 +26437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>162543</v>
       </c>
@@ -26468,7 +26472,7 @@
         <v>86.37</v>
       </c>
       <c r="P467" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q467" t="s">
         <v>96</v>
@@ -26486,7 +26490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>162581</v>
       </c>
@@ -26524,10 +26528,10 @@
         <v>57</v>
       </c>
       <c r="O468" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P468" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q468" t="s">
         <v>96</v>
@@ -26545,7 +26549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>162446</v>
       </c>
@@ -26580,7 +26584,7 @@
         <v>49.42</v>
       </c>
       <c r="P469" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q469" t="s">
         <v>96</v>
@@ -26598,7 +26602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>172416</v>
       </c>
@@ -26633,7 +26637,7 @@
         <v>6.29</v>
       </c>
       <c r="P470" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q470" t="s">
         <v>96</v>
@@ -26651,7 +26655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>172417</v>
       </c>
@@ -26685,8 +26689,11 @@
       <c r="K471" s="1">
         <v>18.91</v>
       </c>
+      <c r="L471" t="s">
+        <v>83</v>
+      </c>
       <c r="P471" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q471" t="s">
         <v>96</v>
@@ -26704,7 +26711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>172418</v>
       </c>
@@ -26739,7 +26746,7 @@
         <v>30.75</v>
       </c>
       <c r="P472" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q472" t="s">
         <v>96</v>
@@ -26757,7 +26764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>172421</v>
       </c>
@@ -26792,7 +26799,7 @@
         <v>30.81</v>
       </c>
       <c r="P473" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q473" t="s">
         <v>96</v>
@@ -26810,7 +26817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>172423</v>
       </c>
@@ -26845,7 +26852,7 @@
         <v>100.4</v>
       </c>
       <c r="P474" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q474" t="s">
         <v>96</v>
@@ -26863,7 +26870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>172470</v>
       </c>
@@ -26898,7 +26905,7 @@
         <v>77.510000000000005</v>
       </c>
       <c r="P475" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q475" t="s">
         <v>96</v>
@@ -26916,7 +26923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>172556</v>
       </c>
@@ -26951,7 +26958,7 @@
         <v>126.83</v>
       </c>
       <c r="P476" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q476" t="s">
         <v>96</v>
@@ -26969,7 +26976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>172499</v>
       </c>
@@ -27004,7 +27011,7 @@
         <v>60.57</v>
       </c>
       <c r="P477" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q477" t="s">
         <v>96</v>
@@ -27022,7 +27029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>172624</v>
       </c>
@@ -27057,7 +27064,7 @@
         <v>67.62</v>
       </c>
       <c r="P478" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q478" t="s">
         <v>96</v>
@@ -27075,7 +27082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>182398</v>
       </c>
@@ -27113,10 +27120,10 @@
         <v>87</v>
       </c>
       <c r="O479" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P479" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q479" t="s">
         <v>96</v>
@@ -27134,7 +27141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>182471</v>
       </c>
@@ -27169,7 +27176,7 @@
         <v>14.96</v>
       </c>
       <c r="P480" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q480" t="s">
         <v>96</v>
@@ -27187,7 +27194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>182681</v>
       </c>
@@ -27222,7 +27229,7 @@
         <v>39.090000000000003</v>
       </c>
       <c r="P481" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q481" t="s">
         <v>96</v>
@@ -27240,7 +27247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>182693</v>
       </c>
@@ -27278,10 +27285,10 @@
         <v>87</v>
       </c>
       <c r="O482" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P482" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q482" t="s">
         <v>96</v>
@@ -27299,7 +27306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>182491</v>
       </c>
@@ -27334,7 +27341,7 @@
         <v>104.25</v>
       </c>
       <c r="P483" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q483" t="s">
         <v>96</v>
@@ -27352,7 +27359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>192437</v>
       </c>
@@ -27387,7 +27394,7 @@
         <v>27.24</v>
       </c>
       <c r="P484" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q484" t="s">
         <v>96</v>
@@ -27405,7 +27412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>192466</v>
       </c>
@@ -27443,10 +27450,10 @@
         <v>87</v>
       </c>
       <c r="O485" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P485" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q485" t="s">
         <v>96</v>
@@ -27464,7 +27471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>192484</v>
       </c>
@@ -27499,7 +27506,7 @@
         <v>75.52</v>
       </c>
       <c r="P486" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q486" t="s">
         <v>96</v>
@@ -27517,7 +27524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>192619</v>
       </c>
@@ -27552,7 +27559,7 @@
         <v>95.1</v>
       </c>
       <c r="P487" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q487" t="s">
         <v>96</v>
@@ -27570,7 +27577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>192527</v>
       </c>
@@ -27605,7 +27612,7 @@
         <v>100.01</v>
       </c>
       <c r="P488" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q488" t="s">
         <v>96</v>
@@ -27623,7 +27630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>192528</v>
       </c>
@@ -27658,7 +27665,7 @@
         <v>39.78</v>
       </c>
       <c r="P489" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q489" t="s">
         <v>96</v>
@@ -27676,7 +27683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>192533</v>
       </c>
@@ -27711,7 +27718,7 @@
         <v>54.9</v>
       </c>
       <c r="P490" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q490" t="s">
         <v>96</v>
@@ -27729,7 +27736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>192534</v>
       </c>
@@ -27764,7 +27771,7 @@
         <v>137.78</v>
       </c>
       <c r="P491" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q491" t="s">
         <v>96</v>
@@ -27782,7 +27789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>192542</v>
       </c>
@@ -27817,7 +27824,7 @@
         <v>17.350000000000001</v>
       </c>
       <c r="P492" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q492" t="s">
         <v>96</v>
@@ -27835,7 +27842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>192543</v>
       </c>
@@ -27870,7 +27877,7 @@
         <v>62.75</v>
       </c>
       <c r="P493" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q493" t="s">
         <v>96</v>
@@ -27888,7 +27895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>192544</v>
       </c>
@@ -27923,10 +27930,10 @@
         <v>14.94</v>
       </c>
       <c r="O494" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P494" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q494" t="s">
         <v>96</v>
@@ -27944,7 +27951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>192546</v>
       </c>
@@ -27979,7 +27986,7 @@
         <v>108.55</v>
       </c>
       <c r="P495" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q495" t="s">
         <v>96</v>
@@ -27997,7 +28004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>192548</v>
       </c>
@@ -28032,10 +28039,10 @@
         <v>124.13</v>
       </c>
       <c r="O496" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P496" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q496" t="s">
         <v>96</v>
@@ -28053,7 +28060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>192674</v>
       </c>
@@ -28091,10 +28098,10 @@
         <v>57</v>
       </c>
       <c r="O497" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P497" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q497" t="s">
         <v>96</v>
@@ -28112,7 +28119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>192560</v>
       </c>
@@ -28147,7 +28154,7 @@
         <v>25.67</v>
       </c>
       <c r="P498" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q498" t="s">
         <v>96</v>
@@ -28165,7 +28172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>202444</v>
       </c>
@@ -28200,7 +28207,7 @@
         <v>50.75</v>
       </c>
       <c r="P499" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q499" t="s">
         <v>96</v>
@@ -28218,7 +28225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>202449</v>
       </c>
@@ -28253,7 +28260,7 @@
         <v>29.26</v>
       </c>
       <c r="P500" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q500" t="s">
         <v>96</v>
@@ -28271,7 +28278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>202543</v>
       </c>
@@ -28306,7 +28313,7 @@
         <v>58.76</v>
       </c>
       <c r="P501" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q501" t="s">
         <v>96</v>
@@ -28324,7 +28331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>202545</v>
       </c>
@@ -28359,10 +28366,10 @@
         <v>39</v>
       </c>
       <c r="O502" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P502" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q502" t="s">
         <v>96</v>
@@ -28380,7 +28387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>202550</v>
       </c>
@@ -28415,7 +28422,7 @@
         <v>31.25</v>
       </c>
       <c r="P503" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q503" t="s">
         <v>96</v>
@@ -28433,7 +28440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>202585</v>
       </c>
@@ -28468,7 +28475,7 @@
         <v>87.89</v>
       </c>
       <c r="P504" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q504" t="s">
         <v>96</v>
@@ -28500,9 +28507,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -28510,7 +28517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -28518,7 +28525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -28526,7 +28533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -28534,7 +28541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -28542,7 +28549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -28550,7 +28557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -28558,7 +28565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -28566,7 +28573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -28574,7 +28581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -28582,7 +28589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -28590,7 +28597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -28598,7 +28605,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -28606,7 +28613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -28614,7 +28621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -28622,7 +28629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -28630,7 +28637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -28638,7 +28645,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -28646,7 +28653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -28654,7 +28661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -28662,7 +28669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -28670,7 +28677,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -28678,37 +28685,37 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
